--- a/database/Database_v1.1.xlsx
+++ b/database/Database_v1.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gesisev-my.sharepoint.com/personal/julia_romberg_gesis_org/Documents/Dokumente/GitHub/perspectivist-turn-aq/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="11_97988F0E8A1B016E30330E251C81EA43AB54F278" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E3D458E-7433-4BFC-B02C-E77100E12F28}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="11_97988F0E8A1B016E30330E251C81EA43AB54F278" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A920C1F8-FB1B-4649-A140-77FD6E775173}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="database" sheetId="1" r:id="rId1"/>
@@ -1554,9 +1554,6 @@
     <t>up to 45348</t>
   </si>
   <si>
-    <t>D31a</t>
-  </si>
-  <si>
     <t>Nonsense!: Quality Control via Two-Step Reason Selection for Annotating Local Acceptability and Related Attributes in News Editorials</t>
   </si>
   <si>
@@ -3739,6 +3736,9 @@
   </si>
   <si>
     <t>ethnicity, religious ideology, political ideology, birthday, relationship status, education, income, political party they support, and the president they support</t>
+  </si>
+  <si>
+    <t>D32a</t>
   </si>
 </sst>
 </file>
@@ -4181,6 +4181,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
@@ -4384,9 +4388,9 @@
   </sheetPr>
   <dimension ref="A1:AJ940"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AF36" sqref="AF36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4610,7 +4614,7 @@
     </row>
     <row r="3" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="76" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B3" s="76" t="s">
         <v>77</v>
@@ -4620,7 +4624,7 @@
         <v>35</v>
       </c>
       <c r="E3" s="94" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="F3" s="94" t="s">
         <v>257</v>
@@ -4632,25 +4636,25 @@
         <v>52</v>
       </c>
       <c r="I3" s="76" t="s">
+        <v>1071</v>
+      </c>
+      <c r="J3" s="76" t="s">
         <v>1072</v>
-      </c>
-      <c r="J3" s="76" t="s">
-        <v>1073</v>
       </c>
       <c r="K3" s="76">
         <v>2012</v>
       </c>
       <c r="L3" s="76" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="M3" s="76" t="s">
         <v>43</v>
       </c>
       <c r="N3" s="90" t="s">
+        <v>1074</v>
+      </c>
+      <c r="O3" s="94" t="s">
         <v>1075</v>
-      </c>
-      <c r="O3" s="94" t="s">
-        <v>1076</v>
       </c>
       <c r="P3" s="93" t="s">
         <v>224</v>
@@ -4662,7 +4666,7 @@
         <v>48</v>
       </c>
       <c r="S3" s="21" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="T3" s="76" t="s">
         <v>463</v>
@@ -4704,7 +4708,7 @@
         <v>77</v>
       </c>
       <c r="AG3" s="42" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="AH3" s="12"/>
       <c r="AI3" s="12"/>
@@ -4814,7 +4818,7 @@
     </row>
     <row r="5" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="B5" s="77" t="s">
         <v>77</v>
@@ -4836,28 +4840,28 @@
         <v>77</v>
       </c>
       <c r="I5" s="77" t="s">
+        <v>1111</v>
+      </c>
+      <c r="J5" s="77" t="s">
         <v>1112</v>
-      </c>
-      <c r="J5" s="77" t="s">
-        <v>1113</v>
       </c>
       <c r="K5" s="77">
         <v>2014</v>
       </c>
       <c r="L5" s="77" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="M5" s="77" t="s">
         <v>85</v>
       </c>
       <c r="N5" s="33" t="s">
+        <v>1114</v>
+      </c>
+      <c r="O5" s="77" t="s">
         <v>1115</v>
       </c>
-      <c r="O5" s="77" t="s">
+      <c r="P5" s="84" t="s">
         <v>1116</v>
-      </c>
-      <c r="P5" s="84" t="s">
-        <v>1117</v>
       </c>
       <c r="Q5" s="19" t="s">
         <v>47</v>
@@ -4866,7 +4870,7 @@
         <v>48</v>
       </c>
       <c r="S5" s="76" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="T5" s="15" t="s">
         <v>416</v>
@@ -4878,10 +4882,10 @@
         <v>77</v>
       </c>
       <c r="W5" s="45" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="X5" s="38" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="Y5" s="32" t="s">
         <v>77</v>
@@ -4905,7 +4909,7 @@
         <v>2</v>
       </c>
       <c r="AF5" s="92" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="AG5" s="92">
         <v>138</v>
@@ -5222,17 +5226,17 @@
     </row>
     <row r="9" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="76" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B9" s="94" t="s">
         <v>1079</v>
-      </c>
-      <c r="B9" s="94" t="s">
-        <v>1080</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="94" t="s">
         <v>35</v>
       </c>
       <c r="E9" s="94" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="F9" s="94" t="s">
         <v>37</v>
@@ -5244,7 +5248,7 @@
         <v>52</v>
       </c>
       <c r="I9" s="94" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="J9" s="94" t="s">
         <v>472</v>
@@ -5253,16 +5257,16 @@
         <v>2016</v>
       </c>
       <c r="L9" s="15" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="M9" s="94" t="s">
         <v>43</v>
       </c>
       <c r="N9" s="90" t="s">
+        <v>1083</v>
+      </c>
+      <c r="O9" s="94" t="s">
         <v>1084</v>
-      </c>
-      <c r="O9" s="94" t="s">
-        <v>1085</v>
       </c>
       <c r="P9" s="93" t="s">
         <v>446</v>
@@ -5274,7 +5278,7 @@
         <v>48</v>
       </c>
       <c r="S9" s="21" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="T9" s="91" t="s">
         <v>158</v>
@@ -5732,17 +5736,17 @@
     </row>
     <row r="14" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B14" s="13" t="s">
         <v>1087</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>1088</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13" t="s">
         <v>35</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="F14" s="15" t="s">
         <v>37</v>
@@ -5754,25 +5758,25 @@
         <v>52</v>
       </c>
       <c r="I14" s="13" t="s">
+        <v>1089</v>
+      </c>
+      <c r="J14" s="13" t="s">
         <v>1090</v>
-      </c>
-      <c r="J14" s="13" t="s">
-        <v>1091</v>
       </c>
       <c r="K14" s="13">
         <v>2016</v>
       </c>
       <c r="L14" s="15" t="s">
+        <v>1091</v>
+      </c>
+      <c r="M14" s="13" t="s">
         <v>1092</v>
       </c>
-      <c r="M14" s="13" t="s">
+      <c r="N14" s="17" t="s">
         <v>1093</v>
       </c>
-      <c r="N14" s="17" t="s">
-        <v>1094</v>
-      </c>
       <c r="O14" s="13" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="P14" s="19" t="s">
         <v>340</v>
@@ -5784,7 +5788,7 @@
         <v>48</v>
       </c>
       <c r="S14" s="21" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="T14" s="13" t="s">
         <v>158</v>
@@ -7264,7 +7268,7 @@
     </row>
     <row r="29" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="94" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B29" s="76" t="s">
         <v>77</v>
@@ -7274,19 +7278,19 @@
         <v>35</v>
       </c>
       <c r="E29" s="94" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="F29" s="94" t="s">
         <v>37</v>
       </c>
       <c r="G29" s="49" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="H29" s="49" t="s">
         <v>52</v>
       </c>
       <c r="I29" s="34" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="J29" s="76" t="s">
         <v>315</v>
@@ -7295,13 +7299,13 @@
         <v>2018</v>
       </c>
       <c r="L29" s="76" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="M29" s="34" t="s">
         <v>43</v>
       </c>
       <c r="N29" s="33" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="O29" s="94" t="s">
         <v>413</v>
@@ -7316,10 +7320,10 @@
         <v>48</v>
       </c>
       <c r="S29" s="21" t="s">
+        <v>1099</v>
+      </c>
+      <c r="T29" s="94" t="s">
         <v>1100</v>
-      </c>
-      <c r="T29" s="94" t="s">
-        <v>1101</v>
       </c>
       <c r="U29" s="93" t="s">
         <v>253</v>
@@ -7875,17 +7879,17 @@
     </row>
     <row r="35" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="34" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B35" s="34" t="s">
         <v>1102</v>
-      </c>
-      <c r="B35" s="34" t="s">
-        <v>1103</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="49" t="s">
         <v>35</v>
       </c>
       <c r="E35" s="49" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="F35" s="49" t="s">
         <v>37</v>
@@ -7897,25 +7901,25 @@
         <v>52</v>
       </c>
       <c r="I35" s="34" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="J35" s="34" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="K35" s="34">
         <v>2018</v>
       </c>
       <c r="L35" s="51" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="M35" s="34" t="s">
         <v>43</v>
       </c>
       <c r="N35" s="37" t="s">
+        <v>1106</v>
+      </c>
+      <c r="O35" s="14" t="s">
         <v>1107</v>
-      </c>
-      <c r="O35" s="14" t="s">
-        <v>1108</v>
       </c>
       <c r="P35" s="19" t="s">
         <v>476</v>
@@ -7927,10 +7931,10 @@
         <v>48</v>
       </c>
       <c r="S35" s="21" t="s">
+        <v>1108</v>
+      </c>
+      <c r="T35" s="14" t="s">
         <v>1109</v>
-      </c>
-      <c r="T35" s="14" t="s">
-        <v>1110</v>
       </c>
       <c r="U35" s="19" t="s">
         <v>253</v>
@@ -8068,7 +8072,7 @@
         <v>52</v>
       </c>
       <c r="AF36" s="109" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="AG36" s="108" t="s">
         <v>509</v>
@@ -8079,7 +8083,7 @@
     </row>
     <row r="37" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
-        <v>510</v>
+        <v>1237</v>
       </c>
       <c r="B37" s="15" t="s">
         <v>77</v>
@@ -8103,22 +8107,22 @@
         <v>77</v>
       </c>
       <c r="I37" s="15" t="s">
+        <v>510</v>
+      </c>
+      <c r="J37" s="15" t="s">
         <v>511</v>
-      </c>
-      <c r="J37" s="15" t="s">
-        <v>512</v>
       </c>
       <c r="K37" s="15">
         <v>2019</v>
       </c>
-      <c r="L37" s="15" t="s">
-        <v>513</v>
+      <c r="L37" s="99" t="s">
+        <v>512</v>
       </c>
       <c r="M37" s="15" t="s">
         <v>43</v>
       </c>
       <c r="N37" s="92" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="O37" s="15" t="s">
         <v>69</v>
@@ -8133,10 +8137,10 @@
         <v>48</v>
       </c>
       <c r="S37" s="21" t="s">
+        <v>514</v>
+      </c>
+      <c r="T37" s="91" t="s">
         <v>515</v>
-      </c>
-      <c r="T37" s="91" t="s">
-        <v>516</v>
       </c>
       <c r="U37" s="19" t="s">
         <v>51</v>
@@ -8145,13 +8149,13 @@
         <v>77</v>
       </c>
       <c r="W37" s="96" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="X37" s="95" t="s">
         <v>241</v>
       </c>
       <c r="Y37" s="52" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="Z37" s="19" t="s">
         <v>171</v>
@@ -8166,7 +8170,7 @@
         <v>77</v>
       </c>
       <c r="AD37" s="98" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AE37" s="98">
         <v>218</v>
@@ -8183,7 +8187,7 @@
     </row>
     <row r="38" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B38" s="13" t="s">
         <v>77</v>
@@ -8193,7 +8197,7 @@
         <v>35</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F38" s="63" t="s">
         <v>257</v>
@@ -8205,22 +8209,22 @@
         <v>77</v>
       </c>
       <c r="I38" s="13" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="J38" s="13" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="K38" s="13">
         <v>2019</v>
       </c>
       <c r="L38" s="15" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="M38" s="13" t="s">
         <v>43</v>
       </c>
       <c r="N38" s="17" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="O38" s="13" t="s">
         <v>69</v>
@@ -8235,10 +8239,10 @@
         <v>48</v>
       </c>
       <c r="S38" s="21" t="s">
+        <v>514</v>
+      </c>
+      <c r="T38" s="55" t="s">
         <v>515</v>
-      </c>
-      <c r="T38" s="55" t="s">
-        <v>516</v>
       </c>
       <c r="U38" s="84" t="s">
         <v>51</v>
@@ -8253,25 +8257,25 @@
         <v>77</v>
       </c>
       <c r="Y38" s="32" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="Z38" s="84" t="s">
         <v>321</v>
       </c>
       <c r="AA38" s="19" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AB38" s="38" t="s">
         <v>77</v>
       </c>
       <c r="AC38" s="23" t="s">
+        <v>525</v>
+      </c>
+      <c r="AD38" s="58" t="s">
         <v>526</v>
       </c>
-      <c r="AD38" s="58" t="s">
+      <c r="AE38" s="58" t="s">
         <v>527</v>
-      </c>
-      <c r="AE38" s="58" t="s">
-        <v>528</v>
       </c>
       <c r="AF38" s="17" t="s">
         <v>77</v>
@@ -8285,10 +8289,10 @@
     </row>
     <row r="39" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
+        <v>528</v>
+      </c>
+      <c r="B39" s="13" t="s">
         <v>529</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>530</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="14" t="s">
@@ -8307,25 +8311,25 @@
         <v>165</v>
       </c>
       <c r="I39" s="13" t="s">
+        <v>530</v>
+      </c>
+      <c r="J39" s="13" t="s">
         <v>531</v>
-      </c>
-      <c r="J39" s="13" t="s">
-        <v>532</v>
       </c>
       <c r="K39" s="13">
         <v>2019</v>
       </c>
       <c r="L39" s="15" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="M39" s="13" t="s">
         <v>43</v>
       </c>
       <c r="N39" s="17" t="s">
+        <v>533</v>
+      </c>
+      <c r="O39" s="13" t="s">
         <v>534</v>
-      </c>
-      <c r="O39" s="13" t="s">
-        <v>535</v>
       </c>
       <c r="P39" s="18" t="s">
         <v>264</v>
@@ -8337,7 +8341,7 @@
         <v>48</v>
       </c>
       <c r="S39" s="21" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="T39" s="94" t="s">
         <v>158</v>
@@ -8349,13 +8353,13 @@
         <v>267</v>
       </c>
       <c r="W39" s="24" t="s">
+        <v>536</v>
+      </c>
+      <c r="X39" s="23" t="s">
         <v>537</v>
       </c>
-      <c r="X39" s="23" t="s">
+      <c r="Y39" s="32" t="s">
         <v>538</v>
-      </c>
-      <c r="Y39" s="32" t="s">
-        <v>539</v>
       </c>
       <c r="Z39" s="93" t="s">
         <v>171</v>
@@ -8387,17 +8391,17 @@
     </row>
     <row r="40" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
+        <v>539</v>
+      </c>
+      <c r="B40" s="13" t="s">
         <v>540</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>541</v>
       </c>
       <c r="C40" s="77"/>
       <c r="D40" s="14" t="s">
         <v>35</v>
       </c>
       <c r="E40" s="99" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F40" s="14" t="s">
         <v>37</v>
@@ -8409,22 +8413,22 @@
         <v>77</v>
       </c>
       <c r="I40" s="13" t="s">
+        <v>542</v>
+      </c>
+      <c r="J40" s="13" t="s">
         <v>543</v>
-      </c>
-      <c r="J40" s="13" t="s">
-        <v>544</v>
       </c>
       <c r="K40" s="13">
         <v>2019</v>
       </c>
       <c r="L40" s="15" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="M40" s="13" t="s">
         <v>261</v>
       </c>
       <c r="N40" s="17" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="O40" s="13" t="s">
         <v>223</v>
@@ -8439,10 +8443,10 @@
         <v>48</v>
       </c>
       <c r="S40" s="21" t="s">
+        <v>546</v>
+      </c>
+      <c r="T40" s="14" t="s">
         <v>547</v>
-      </c>
-      <c r="T40" s="14" t="s">
-        <v>548</v>
       </c>
       <c r="U40" s="19" t="s">
         <v>51</v>
@@ -8451,10 +8455,10 @@
         <v>342</v>
       </c>
       <c r="W40" s="39" t="s">
+        <v>548</v>
+      </c>
+      <c r="X40" s="38" t="s">
         <v>549</v>
-      </c>
-      <c r="X40" s="38" t="s">
-        <v>550</v>
       </c>
       <c r="Y40" s="32" t="s">
         <v>242</v>
@@ -8469,7 +8473,7 @@
         <v>227</v>
       </c>
       <c r="AC40" s="23" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AD40" s="58">
         <v>1</v>
@@ -8693,17 +8697,17 @@
     </row>
     <row r="43" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="15" t="s">
+        <v>551</v>
+      </c>
+      <c r="B43" s="13" t="s">
         <v>552</v>
-      </c>
-      <c r="B43" s="13" t="s">
-        <v>553</v>
       </c>
       <c r="C43" s="13"/>
       <c r="D43" s="94" t="s">
         <v>35</v>
       </c>
       <c r="E43" s="64" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F43" s="94" t="s">
         <v>257</v>
@@ -8715,22 +8719,22 @@
         <v>77</v>
       </c>
       <c r="I43" s="13" t="s">
+        <v>554</v>
+      </c>
+      <c r="J43" s="13" t="s">
         <v>555</v>
-      </c>
-      <c r="J43" s="13" t="s">
-        <v>556</v>
       </c>
       <c r="K43" s="13">
         <v>2019</v>
       </c>
       <c r="L43" s="15" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="M43" s="13" t="s">
         <v>43</v>
       </c>
       <c r="N43" s="17" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="O43" s="13" t="s">
         <v>87</v>
@@ -8745,7 +8749,7 @@
         <v>48</v>
       </c>
       <c r="S43" s="21" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="T43" s="94" t="s">
         <v>158</v>
@@ -8757,7 +8761,7 @@
         <v>91</v>
       </c>
       <c r="W43" s="24" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="X43" s="23" t="s">
         <v>241</v>
@@ -8795,7 +8799,7 @@
     </row>
     <row r="44" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="34" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B44" s="15" t="s">
         <v>77</v>
@@ -8817,25 +8821,25 @@
         <v>77</v>
       </c>
       <c r="I44" s="15" t="s">
+        <v>561</v>
+      </c>
+      <c r="J44" s="15" t="s">
         <v>562</v>
-      </c>
-      <c r="J44" s="15" t="s">
-        <v>563</v>
       </c>
       <c r="K44" s="15">
         <v>2019</v>
       </c>
       <c r="L44" s="15" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="M44" s="15" t="s">
         <v>43</v>
       </c>
       <c r="N44" s="92" t="s">
+        <v>564</v>
+      </c>
+      <c r="O44" s="15" t="s">
         <v>565</v>
-      </c>
-      <c r="O44" s="15" t="s">
-        <v>566</v>
       </c>
       <c r="P44" s="84" t="s">
         <v>302</v>
@@ -8865,7 +8869,7 @@
         <v>52</v>
       </c>
       <c r="Y44" s="32" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="Z44" s="93" t="s">
         <v>171</v>
@@ -8897,7 +8901,7 @@
     </row>
     <row r="45" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="34" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B45" s="34" t="s">
         <v>77</v>
@@ -8919,25 +8923,25 @@
         <v>52</v>
       </c>
       <c r="I45" s="34" t="s">
+        <v>568</v>
+      </c>
+      <c r="J45" s="34" t="s">
         <v>569</v>
-      </c>
-      <c r="J45" s="34" t="s">
-        <v>570</v>
       </c>
       <c r="K45" s="34">
         <v>2019</v>
       </c>
       <c r="L45" s="51" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="M45" s="94" t="s">
         <v>43</v>
       </c>
       <c r="N45" s="37" t="s">
+        <v>571</v>
+      </c>
+      <c r="O45" s="14" t="s">
         <v>572</v>
-      </c>
-      <c r="O45" s="14" t="s">
-        <v>573</v>
       </c>
       <c r="P45" s="19" t="s">
         <v>224</v>
@@ -8949,7 +8953,7 @@
         <v>48</v>
       </c>
       <c r="S45" s="21" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="T45" s="14" t="s">
         <v>304</v>
@@ -8999,17 +9003,17 @@
     </row>
     <row r="46" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="76" t="s">
+        <v>574</v>
+      </c>
+      <c r="B46" s="34" t="s">
         <v>575</v>
-      </c>
-      <c r="B46" s="34" t="s">
-        <v>576</v>
       </c>
       <c r="C46" s="63"/>
       <c r="D46" s="14" t="s">
         <v>35</v>
       </c>
       <c r="E46" s="35" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F46" s="14" t="s">
         <v>37</v>
@@ -9036,7 +9040,7 @@
         <v>43</v>
       </c>
       <c r="N46" s="37" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="O46" s="14" t="s">
         <v>475</v>
@@ -9051,7 +9055,7 @@
         <v>48</v>
       </c>
       <c r="S46" s="21" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="T46" s="14" t="s">
         <v>478</v>
@@ -9101,7 +9105,7 @@
     </row>
     <row r="47" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="15" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B47" s="76" t="s">
         <v>77</v>
@@ -9111,7 +9115,7 @@
         <v>35</v>
       </c>
       <c r="E47" s="94" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F47" s="94" t="s">
         <v>37</v>
@@ -9123,25 +9127,25 @@
         <v>52</v>
       </c>
       <c r="I47" s="76" t="s">
+        <v>581</v>
+      </c>
+      <c r="J47" s="76" t="s">
         <v>582</v>
-      </c>
-      <c r="J47" s="76" t="s">
-        <v>583</v>
       </c>
       <c r="K47" s="76">
         <v>2019</v>
       </c>
       <c r="L47" s="76" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="M47" s="76" t="s">
         <v>43</v>
       </c>
       <c r="N47" s="90" t="s">
+        <v>584</v>
+      </c>
+      <c r="O47" s="94" t="s">
         <v>585</v>
-      </c>
-      <c r="O47" s="94" t="s">
-        <v>586</v>
       </c>
       <c r="P47" s="93" t="s">
         <v>340</v>
@@ -9153,7 +9157,7 @@
         <v>48</v>
       </c>
       <c r="S47" s="21" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="T47" s="94" t="s">
         <v>158</v>
@@ -9203,10 +9207,10 @@
     </row>
     <row r="48" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="77" t="s">
+        <v>587</v>
+      </c>
+      <c r="B48" s="15" t="s">
         <v>588</v>
-      </c>
-      <c r="B48" s="15" t="s">
-        <v>589</v>
       </c>
       <c r="C48" s="15"/>
       <c r="D48" s="13" t="s">
@@ -9225,22 +9229,22 @@
         <v>165</v>
       </c>
       <c r="I48" s="15" t="s">
+        <v>589</v>
+      </c>
+      <c r="J48" s="15" t="s">
         <v>590</v>
-      </c>
-      <c r="J48" s="15" t="s">
-        <v>591</v>
       </c>
       <c r="K48" s="15">
         <v>2020</v>
       </c>
       <c r="L48" s="15" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="M48" s="15" t="s">
         <v>85</v>
       </c>
       <c r="N48" s="92" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="O48" s="15" t="s">
         <v>223</v>
@@ -9264,16 +9268,16 @@
         <v>51</v>
       </c>
       <c r="V48" s="23" t="s">
+        <v>593</v>
+      </c>
+      <c r="W48" s="45" t="s">
         <v>594</v>
       </c>
-      <c r="W48" s="45" t="s">
+      <c r="X48" s="95" t="s">
         <v>595</v>
       </c>
-      <c r="X48" s="95" t="s">
+      <c r="Y48" s="32" t="s">
         <v>596</v>
-      </c>
-      <c r="Y48" s="32" t="s">
-        <v>597</v>
       </c>
       <c r="Z48" s="19" t="s">
         <v>171</v>
@@ -9305,17 +9309,17 @@
     </row>
     <row r="49" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="94" t="s">
+        <v>597</v>
+      </c>
+      <c r="B49" s="77" t="s">
         <v>598</v>
-      </c>
-      <c r="B49" s="77" t="s">
-        <v>599</v>
       </c>
       <c r="C49" s="77"/>
       <c r="D49" s="15" t="s">
         <v>35</v>
       </c>
       <c r="E49" s="77" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F49" s="76" t="s">
         <v>37</v>
@@ -9324,28 +9328,28 @@
         <v>64</v>
       </c>
       <c r="H49" s="15" t="s">
+        <v>600</v>
+      </c>
+      <c r="I49" s="77" t="s">
         <v>601</v>
       </c>
-      <c r="I49" s="77" t="s">
+      <c r="J49" s="77" t="s">
         <v>602</v>
-      </c>
-      <c r="J49" s="77" t="s">
-        <v>603</v>
       </c>
       <c r="K49" s="77">
         <v>2020</v>
       </c>
       <c r="L49" s="77" t="s">
+        <v>603</v>
+      </c>
+      <c r="M49" s="77" t="s">
         <v>604</v>
       </c>
-      <c r="M49" s="77" t="s">
+      <c r="N49" s="33" t="s">
         <v>605</v>
       </c>
-      <c r="N49" s="33" t="s">
+      <c r="O49" s="77" t="s">
         <v>606</v>
-      </c>
-      <c r="O49" s="77" t="s">
-        <v>607</v>
       </c>
       <c r="P49" s="84" t="s">
         <v>171</v>
@@ -9354,10 +9358,10 @@
         <v>47</v>
       </c>
       <c r="R49" s="84" t="s">
+        <v>607</v>
+      </c>
+      <c r="S49" s="76" t="s">
         <v>608</v>
-      </c>
-      <c r="S49" s="76" t="s">
-        <v>609</v>
       </c>
       <c r="T49" s="15" t="s">
         <v>173</v>
@@ -9407,7 +9411,7 @@
     </row>
     <row r="50" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="77" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B50" s="94" t="s">
         <v>77</v>
@@ -9417,7 +9421,7 @@
         <v>35</v>
       </c>
       <c r="E50" s="94" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F50" s="14" t="s">
         <v>37</v>
@@ -9429,22 +9433,22 @@
         <v>52</v>
       </c>
       <c r="I50" s="94" t="s">
+        <v>611</v>
+      </c>
+      <c r="J50" s="94" t="s">
         <v>612</v>
-      </c>
-      <c r="J50" s="94" t="s">
-        <v>613</v>
       </c>
       <c r="K50" s="94">
         <v>2020</v>
       </c>
       <c r="L50" s="94" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="M50" s="94" t="s">
         <v>43</v>
       </c>
       <c r="N50" s="42" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="O50" s="94" t="s">
         <v>69</v>
@@ -9459,10 +9463,10 @@
         <v>48</v>
       </c>
       <c r="S50" s="94" t="s">
+        <v>615</v>
+      </c>
+      <c r="T50" s="94" t="s">
         <v>616</v>
-      </c>
-      <c r="T50" s="94" t="s">
-        <v>617</v>
       </c>
       <c r="U50" s="19" t="s">
         <v>253</v>
@@ -9509,17 +9513,17 @@
     </row>
     <row r="51" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="76" t="s">
+        <v>617</v>
+      </c>
+      <c r="B51" s="77" t="s">
         <v>618</v>
-      </c>
-      <c r="B51" s="77" t="s">
-        <v>619</v>
       </c>
       <c r="C51" s="77"/>
       <c r="D51" s="14" t="s">
         <v>35</v>
       </c>
       <c r="E51" s="99" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="F51" s="14" t="s">
         <v>37</v>
@@ -9528,28 +9532,28 @@
         <v>348</v>
       </c>
       <c r="H51" s="15" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="I51" s="77" t="s">
+        <v>620</v>
+      </c>
+      <c r="J51" s="77" t="s">
         <v>621</v>
-      </c>
-      <c r="J51" s="77" t="s">
-        <v>622</v>
       </c>
       <c r="K51" s="77">
         <v>2020</v>
       </c>
       <c r="L51" s="99" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="M51" s="77" t="s">
         <v>43</v>
       </c>
       <c r="N51" s="33" t="s">
+        <v>623</v>
+      </c>
+      <c r="O51" s="77" t="s">
         <v>624</v>
-      </c>
-      <c r="O51" s="77" t="s">
-        <v>625</v>
       </c>
       <c r="P51" s="19" t="s">
         <v>224</v>
@@ -9561,10 +9565,10 @@
         <v>48</v>
       </c>
       <c r="S51" s="76" t="s">
+        <v>625</v>
+      </c>
+      <c r="T51" s="13" t="s">
         <v>626</v>
-      </c>
-      <c r="T51" s="13" t="s">
-        <v>627</v>
       </c>
       <c r="U51" s="19" t="s">
         <v>51</v>
@@ -9611,17 +9615,17 @@
     </row>
     <row r="52" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
+        <v>627</v>
+      </c>
+      <c r="B52" s="76" t="s">
         <v>628</v>
-      </c>
-      <c r="B52" s="76" t="s">
-        <v>629</v>
       </c>
       <c r="C52" s="62"/>
       <c r="D52" s="94" t="s">
         <v>35</v>
       </c>
       <c r="E52" s="94" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F52" s="94" t="s">
         <v>37</v>
@@ -9633,25 +9637,25 @@
         <v>52</v>
       </c>
       <c r="I52" s="76" t="s">
+        <v>630</v>
+      </c>
+      <c r="J52" s="76" t="s">
         <v>631</v>
-      </c>
-      <c r="J52" s="76" t="s">
-        <v>632</v>
       </c>
       <c r="K52" s="76">
         <v>2020</v>
       </c>
       <c r="L52" s="76" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="M52" s="76" t="s">
         <v>43</v>
       </c>
       <c r="N52" s="90" t="s">
+        <v>633</v>
+      </c>
+      <c r="O52" s="15" t="s">
         <v>634</v>
-      </c>
-      <c r="O52" s="15" t="s">
-        <v>635</v>
       </c>
       <c r="P52" s="93" t="s">
         <v>340</v>
@@ -9663,7 +9667,7 @@
         <v>48</v>
       </c>
       <c r="S52" s="94" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="T52" s="13" t="s">
         <v>158</v>
@@ -9815,17 +9819,17 @@
     </row>
     <row r="54" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
+        <v>635</v>
+      </c>
+      <c r="B54" s="28" t="s">
         <v>636</v>
-      </c>
-      <c r="B54" s="28" t="s">
-        <v>637</v>
       </c>
       <c r="C54" s="28"/>
       <c r="D54" s="77" t="s">
         <v>35</v>
       </c>
       <c r="E54" s="77" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="F54" s="15" t="s">
         <v>37</v>
@@ -9837,22 +9841,22 @@
         <v>101</v>
       </c>
       <c r="I54" s="28" t="s">
+        <v>638</v>
+      </c>
+      <c r="J54" s="77" t="s">
         <v>639</v>
-      </c>
-      <c r="J54" s="77" t="s">
-        <v>640</v>
       </c>
       <c r="K54" s="28">
         <v>2020</v>
       </c>
       <c r="L54" s="16" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="M54" s="28" t="s">
         <v>43</v>
       </c>
       <c r="N54" s="33" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="O54" s="28" t="s">
         <v>223</v>
@@ -9864,7 +9868,7 @@
         <v>47</v>
       </c>
       <c r="R54" s="20" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="S54" s="76" t="s">
         <v>172</v>
@@ -9876,13 +9880,13 @@
         <v>51</v>
       </c>
       <c r="V54" s="29" t="s">
+        <v>643</v>
+      </c>
+      <c r="W54" s="45" t="s">
         <v>644</v>
       </c>
-      <c r="W54" s="45" t="s">
+      <c r="X54" s="29" t="s">
         <v>645</v>
-      </c>
-      <c r="X54" s="29" t="s">
-        <v>646</v>
       </c>
       <c r="Y54" s="32" t="s">
         <v>126</v>
@@ -9900,7 +9904,7 @@
         <v>77</v>
       </c>
       <c r="AD54" s="44" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="AE54" s="58" t="s">
         <v>77</v>
@@ -9917,7 +9921,7 @@
     </row>
     <row r="55" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="77" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B55" s="13" t="s">
         <v>77</v>
@@ -9927,7 +9931,7 @@
         <v>35</v>
       </c>
       <c r="E55" s="15" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="F55" s="15" t="s">
         <v>257</v>
@@ -9939,25 +9943,25 @@
         <v>349</v>
       </c>
       <c r="I55" s="13" t="s">
+        <v>649</v>
+      </c>
+      <c r="J55" s="13" t="s">
         <v>650</v>
-      </c>
-      <c r="J55" s="13" t="s">
-        <v>651</v>
       </c>
       <c r="K55" s="13">
         <v>2020</v>
       </c>
       <c r="L55" s="15" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="M55" s="13" t="s">
         <v>261</v>
       </c>
       <c r="N55" s="17" t="s">
+        <v>652</v>
+      </c>
+      <c r="O55" s="13" t="s">
         <v>653</v>
-      </c>
-      <c r="O55" s="13" t="s">
-        <v>654</v>
       </c>
       <c r="P55" s="93" t="s">
         <v>224</v>
@@ -9969,10 +9973,10 @@
         <v>48</v>
       </c>
       <c r="S55" s="21" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="T55" s="13" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="U55" s="84" t="s">
         <v>51</v>
@@ -9981,10 +9985,10 @@
         <v>306</v>
       </c>
       <c r="W55" s="24" t="s">
+        <v>655</v>
+      </c>
+      <c r="X55" s="23" t="s">
         <v>656</v>
-      </c>
-      <c r="X55" s="23" t="s">
-        <v>657</v>
       </c>
       <c r="Y55" s="32" t="s">
         <v>309</v>
@@ -9993,13 +9997,13 @@
         <v>56</v>
       </c>
       <c r="AA55" s="19" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="AB55" s="23" t="s">
         <v>77</v>
       </c>
       <c r="AC55" s="23" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="AD55" s="31">
         <v>2</v>
@@ -10019,17 +10023,17 @@
     </row>
     <row r="56" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="15" t="s">
+        <v>659</v>
+      </c>
+      <c r="B56" s="77" t="s">
         <v>660</v>
-      </c>
-      <c r="B56" s="77" t="s">
-        <v>661</v>
       </c>
       <c r="C56" s="77"/>
       <c r="D56" s="63" t="s">
         <v>35</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F56" s="63" t="s">
         <v>37</v>
@@ -10038,31 +10042,31 @@
         <v>77</v>
       </c>
       <c r="H56" s="13" t="s">
+        <v>662</v>
+      </c>
+      <c r="I56" s="77" t="s">
         <v>663</v>
       </c>
-      <c r="I56" s="77" t="s">
+      <c r="J56" s="13" t="s">
         <v>664</v>
-      </c>
-      <c r="J56" s="13" t="s">
-        <v>665</v>
       </c>
       <c r="K56" s="77">
         <v>2020</v>
       </c>
       <c r="L56" s="77" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="M56" s="77" t="s">
         <v>43</v>
       </c>
       <c r="N56" s="33" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="O56" s="77" t="s">
         <v>223</v>
       </c>
       <c r="P56" s="84" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="Q56" s="19" t="s">
         <v>47</v>
@@ -10071,22 +10075,22 @@
         <v>48</v>
       </c>
       <c r="S56" s="21" t="s">
+        <v>668</v>
+      </c>
+      <c r="T56" s="63" t="s">
         <v>669</v>
-      </c>
-      <c r="T56" s="63" t="s">
-        <v>670</v>
       </c>
       <c r="U56" s="19" t="s">
         <v>51</v>
       </c>
       <c r="V56" s="23" t="s">
+        <v>670</v>
+      </c>
+      <c r="W56" s="24" t="s">
         <v>671</v>
       </c>
-      <c r="W56" s="24" t="s">
+      <c r="X56" s="23" t="s">
         <v>672</v>
-      </c>
-      <c r="X56" s="23" t="s">
-        <v>673</v>
       </c>
       <c r="Y56" s="32" t="s">
         <v>94</v>
@@ -10101,13 +10105,13 @@
         <v>227</v>
       </c>
       <c r="AC56" s="95" t="s">
+        <v>673</v>
+      </c>
+      <c r="AD56" s="58" t="s">
         <v>674</v>
       </c>
-      <c r="AD56" s="58" t="s">
+      <c r="AE56" s="58" t="s">
         <v>675</v>
-      </c>
-      <c r="AE56" s="58" t="s">
-        <v>676</v>
       </c>
       <c r="AF56" s="31" t="s">
         <v>77</v>
@@ -10121,7 +10125,7 @@
     </row>
     <row r="57" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="15" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B57" s="15" t="s">
         <v>77</v>
@@ -10131,37 +10135,37 @@
         <v>35</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F57" s="14" t="s">
         <v>37</v>
       </c>
       <c r="G57" s="15" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H57" s="15" t="s">
         <v>77</v>
       </c>
       <c r="I57" s="15" t="s">
+        <v>679</v>
+      </c>
+      <c r="J57" s="15" t="s">
         <v>680</v>
-      </c>
-      <c r="J57" s="15" t="s">
-        <v>681</v>
       </c>
       <c r="K57" s="15">
         <v>2021</v>
       </c>
       <c r="L57" s="15" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="M57" s="15" t="s">
         <v>43</v>
       </c>
       <c r="N57" s="92" t="s">
+        <v>682</v>
+      </c>
+      <c r="O57" s="15" t="s">
         <v>683</v>
-      </c>
-      <c r="O57" s="15" t="s">
-        <v>684</v>
       </c>
       <c r="P57" s="84" t="s">
         <v>340</v>
@@ -10173,10 +10177,10 @@
         <v>48</v>
       </c>
       <c r="S57" s="21" t="s">
+        <v>684</v>
+      </c>
+      <c r="T57" s="15" t="s">
         <v>685</v>
-      </c>
-      <c r="T57" s="15" t="s">
-        <v>686</v>
       </c>
       <c r="U57" s="19" t="s">
         <v>305</v>
@@ -10185,10 +10189,10 @@
         <v>74</v>
       </c>
       <c r="W57" s="96" t="s">
+        <v>686</v>
+      </c>
+      <c r="X57" s="95" t="s">
         <v>687</v>
-      </c>
-      <c r="X57" s="95" t="s">
-        <v>688</v>
       </c>
       <c r="Y57" s="32" t="s">
         <v>126</v>
@@ -10325,47 +10329,47 @@
     </row>
     <row r="59" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="34" t="s">
+        <v>688</v>
+      </c>
+      <c r="B59" s="15" t="s">
         <v>689</v>
-      </c>
-      <c r="B59" s="15" t="s">
-        <v>690</v>
       </c>
       <c r="C59" s="13"/>
       <c r="D59" s="15" t="s">
         <v>35</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F59" s="15" t="s">
         <v>37</v>
       </c>
       <c r="G59" s="15" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="H59" s="15" t="s">
         <v>52</v>
       </c>
       <c r="I59" s="15" t="s">
+        <v>692</v>
+      </c>
+      <c r="J59" s="15" t="s">
         <v>693</v>
-      </c>
-      <c r="J59" s="15" t="s">
-        <v>694</v>
       </c>
       <c r="K59" s="15">
         <v>2021</v>
       </c>
       <c r="L59" s="15" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="M59" s="15" t="s">
         <v>43</v>
       </c>
       <c r="N59" s="92" t="s">
+        <v>695</v>
+      </c>
+      <c r="O59" s="15" t="s">
         <v>696</v>
-      </c>
-      <c r="O59" s="15" t="s">
-        <v>697</v>
       </c>
       <c r="P59" s="54" t="s">
         <v>476</v>
@@ -10377,7 +10381,7 @@
         <v>48</v>
       </c>
       <c r="S59" s="21" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="T59" s="15" t="s">
         <v>252</v>
@@ -10427,46 +10431,46 @@
     </row>
     <row r="60" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="94" t="s">
+        <v>698</v>
+      </c>
+      <c r="B60" s="34" t="s">
         <v>699</v>
-      </c>
-      <c r="B60" s="34" t="s">
-        <v>700</v>
       </c>
       <c r="D60" s="14" t="s">
         <v>35</v>
       </c>
       <c r="E60" s="94" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F60" s="14" t="s">
         <v>37</v>
       </c>
       <c r="G60" s="14" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H60" s="100" t="s">
         <v>203</v>
       </c>
       <c r="I60" s="34" t="s">
+        <v>702</v>
+      </c>
+      <c r="J60" s="34" t="s">
         <v>703</v>
-      </c>
-      <c r="J60" s="34" t="s">
-        <v>704</v>
       </c>
       <c r="K60" s="34">
         <v>2021</v>
       </c>
       <c r="L60" s="51" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="M60" s="34" t="s">
         <v>43</v>
       </c>
       <c r="N60" s="37" t="s">
+        <v>705</v>
+      </c>
+      <c r="O60" s="14" t="s">
         <v>706</v>
-      </c>
-      <c r="O60" s="14" t="s">
-        <v>707</v>
       </c>
       <c r="P60" s="19" t="s">
         <v>340</v>
@@ -10478,10 +10482,10 @@
         <v>71</v>
       </c>
       <c r="S60" s="21" t="s">
+        <v>707</v>
+      </c>
+      <c r="T60" s="49" t="s">
         <v>708</v>
-      </c>
-      <c r="T60" s="49" t="s">
-        <v>709</v>
       </c>
       <c r="U60" s="19" t="s">
         <v>51</v>
@@ -10490,7 +10494,7 @@
         <v>77</v>
       </c>
       <c r="W60" s="39" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="X60" s="50" t="s">
         <v>418</v>
@@ -10528,17 +10532,17 @@
     </row>
     <row r="61" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="78" t="s">
+        <v>710</v>
+      </c>
+      <c r="B61" s="94" t="s">
         <v>711</v>
-      </c>
-      <c r="B61" s="94" t="s">
-        <v>712</v>
       </c>
       <c r="C61" s="15"/>
       <c r="D61" s="14" t="s">
         <v>35</v>
       </c>
       <c r="E61" s="87" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F61" s="94" t="s">
         <v>37</v>
@@ -10547,28 +10551,28 @@
         <v>348</v>
       </c>
       <c r="H61" s="94" t="s">
+        <v>713</v>
+      </c>
+      <c r="I61" s="94" t="s">
         <v>714</v>
       </c>
-      <c r="I61" s="94" t="s">
+      <c r="J61" s="94" t="s">
         <v>715</v>
-      </c>
-      <c r="J61" s="94" t="s">
-        <v>716</v>
       </c>
       <c r="K61" s="94">
         <v>2021</v>
       </c>
       <c r="L61" s="94" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="M61" s="14" t="s">
         <v>261</v>
       </c>
       <c r="N61" s="42" t="s">
+        <v>717</v>
+      </c>
+      <c r="O61" s="94" t="s">
         <v>718</v>
-      </c>
-      <c r="O61" s="94" t="s">
-        <v>719</v>
       </c>
       <c r="P61" s="84" t="s">
         <v>224</v>
@@ -10580,7 +10584,7 @@
         <v>48</v>
       </c>
       <c r="S61" s="94" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="T61" s="94" t="s">
         <v>158</v>
@@ -10592,10 +10596,10 @@
         <v>52</v>
       </c>
       <c r="W61" s="39" t="s">
+        <v>720</v>
+      </c>
+      <c r="X61" s="38" t="s">
         <v>721</v>
-      </c>
-      <c r="X61" s="38" t="s">
-        <v>722</v>
       </c>
       <c r="Y61" s="52" t="s">
         <v>242</v>
@@ -10610,7 +10614,7 @@
         <v>58</v>
       </c>
       <c r="AC61" s="38" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="AD61" s="41">
         <v>1</v>
@@ -10627,17 +10631,17 @@
     </row>
     <row r="62" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="76" t="s">
+        <v>723</v>
+      </c>
+      <c r="B62" s="94" t="s">
         <v>724</v>
-      </c>
-      <c r="B62" s="94" t="s">
-        <v>725</v>
       </c>
       <c r="C62" s="13"/>
       <c r="D62" s="94" t="s">
         <v>35</v>
       </c>
       <c r="E62" s="94" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="F62" s="94" t="s">
         <v>37</v>
@@ -10646,28 +10650,28 @@
         <v>348</v>
       </c>
       <c r="H62" s="94" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="I62" s="94" t="s">
+        <v>714</v>
+      </c>
+      <c r="J62" s="94" t="s">
         <v>715</v>
-      </c>
-      <c r="J62" s="94" t="s">
-        <v>716</v>
       </c>
       <c r="K62" s="94">
         <v>2021</v>
       </c>
       <c r="L62" s="94" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="M62" s="94" t="s">
         <v>261</v>
       </c>
       <c r="N62" s="42" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="O62" s="94" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="P62" s="93" t="s">
         <v>302</v>
@@ -10679,7 +10683,7 @@
         <v>48</v>
       </c>
       <c r="S62" s="21" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="T62" s="94" t="s">
         <v>158</v>
@@ -10691,10 +10695,10 @@
         <v>52</v>
       </c>
       <c r="W62" s="90" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="X62" s="38" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="Y62" s="97" t="s">
         <v>242</v>
@@ -10709,7 +10713,7 @@
         <v>58</v>
       </c>
       <c r="AC62" s="38" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="AD62" s="98">
         <v>1</v>
@@ -10729,10 +10733,10 @@
     </row>
     <row r="63" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="15" t="s">
+        <v>730</v>
+      </c>
+      <c r="B63" s="76" t="s">
         <v>731</v>
-      </c>
-      <c r="B63" s="76" t="s">
-        <v>732</v>
       </c>
       <c r="C63" s="62"/>
       <c r="D63" s="94" t="s">
@@ -10748,28 +10752,28 @@
         <v>77</v>
       </c>
       <c r="H63" s="14" t="s">
+        <v>732</v>
+      </c>
+      <c r="I63" s="76" t="s">
         <v>733</v>
       </c>
-      <c r="I63" s="76" t="s">
+      <c r="J63" s="76" t="s">
         <v>734</v>
-      </c>
-      <c r="J63" s="76" t="s">
-        <v>735</v>
       </c>
       <c r="K63" s="76">
         <v>2021</v>
       </c>
       <c r="L63" s="76" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="M63" s="76" t="s">
         <v>43</v>
       </c>
       <c r="N63" s="90" t="s">
+        <v>736</v>
+      </c>
+      <c r="O63" s="14" t="s">
         <v>737</v>
-      </c>
-      <c r="O63" s="14" t="s">
-        <v>738</v>
       </c>
       <c r="P63" s="19" t="s">
         <v>340</v>
@@ -10778,28 +10782,28 @@
         <v>47</v>
       </c>
       <c r="R63" s="19" t="s">
+        <v>738</v>
+      </c>
+      <c r="S63" s="21" t="s">
         <v>739</v>
       </c>
-      <c r="S63" s="21" t="s">
+      <c r="T63" s="94" t="s">
         <v>740</v>
-      </c>
-      <c r="T63" s="94" t="s">
-        <v>741</v>
       </c>
       <c r="U63" s="19" t="s">
         <v>51</v>
       </c>
       <c r="V63" s="80" t="s">
+        <v>741</v>
+      </c>
+      <c r="W63" s="39" t="s">
         <v>742</v>
       </c>
-      <c r="W63" s="39" t="s">
+      <c r="X63" s="91" t="s">
         <v>743</v>
       </c>
-      <c r="X63" s="91" t="s">
+      <c r="Y63" s="52" t="s">
         <v>744</v>
-      </c>
-      <c r="Y63" s="52" t="s">
-        <v>745</v>
       </c>
       <c r="Z63" s="19" t="s">
         <v>56</v>
@@ -10811,7 +10815,7 @@
         <v>227</v>
       </c>
       <c r="AC63" s="38" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="AD63" s="41">
         <v>4</v>
@@ -10831,10 +10835,10 @@
     </row>
     <row r="64" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="15" t="s">
+        <v>746</v>
+      </c>
+      <c r="B64" s="34" t="s">
         <v>747</v>
-      </c>
-      <c r="B64" s="34" t="s">
-        <v>748</v>
       </c>
       <c r="C64" s="62"/>
       <c r="D64" s="14" t="s">
@@ -10850,25 +10854,25 @@
         <v>77</v>
       </c>
       <c r="H64" s="76" t="s">
+        <v>748</v>
+      </c>
+      <c r="I64" s="34" t="s">
         <v>749</v>
       </c>
-      <c r="I64" s="34" t="s">
+      <c r="J64" s="34" t="s">
         <v>750</v>
-      </c>
-      <c r="J64" s="34" t="s">
-        <v>751</v>
       </c>
       <c r="K64" s="34">
         <v>2022</v>
       </c>
       <c r="L64" s="36" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="M64" s="94" t="s">
         <v>105</v>
       </c>
       <c r="N64" s="37" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="O64" s="76" t="s">
         <v>236</v>
@@ -10883,10 +10887,10 @@
         <v>71</v>
       </c>
       <c r="S64" s="76" t="s">
+        <v>753</v>
+      </c>
+      <c r="T64" s="13" t="s">
         <v>754</v>
-      </c>
-      <c r="T64" s="13" t="s">
-        <v>755</v>
       </c>
       <c r="U64" s="15" t="s">
         <v>51</v>
@@ -10895,10 +10899,10 @@
         <v>77</v>
       </c>
       <c r="W64" s="90" t="s">
+        <v>755</v>
+      </c>
+      <c r="X64" s="50" t="s">
         <v>756</v>
-      </c>
-      <c r="X64" s="50" t="s">
-        <v>757</v>
       </c>
       <c r="Y64" s="81" t="s">
         <v>242</v>
@@ -10913,7 +10917,7 @@
         <v>77</v>
       </c>
       <c r="AC64" s="91" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="AD64" s="41" t="s">
         <v>77</v>
@@ -10933,17 +10937,17 @@
     </row>
     <row r="65" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="94" t="s">
+        <v>758</v>
+      </c>
+      <c r="B65" s="15" t="s">
         <v>759</v>
-      </c>
-      <c r="B65" s="15" t="s">
-        <v>760</v>
       </c>
       <c r="C65" s="15"/>
       <c r="D65" s="49" t="s">
         <v>35</v>
       </c>
       <c r="E65" s="15" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="F65" s="49" t="s">
         <v>37</v>
@@ -10952,28 +10956,28 @@
         <v>164</v>
       </c>
       <c r="H65" s="15" t="s">
+        <v>761</v>
+      </c>
+      <c r="I65" s="15" t="s">
         <v>762</v>
       </c>
-      <c r="I65" s="15" t="s">
+      <c r="J65" s="15" t="s">
         <v>763</v>
-      </c>
-      <c r="J65" s="15" t="s">
-        <v>764</v>
       </c>
       <c r="K65" s="15">
         <v>2022</v>
       </c>
       <c r="L65" s="15" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="M65" s="15" t="s">
         <v>43</v>
       </c>
       <c r="N65" s="92" t="s">
+        <v>765</v>
+      </c>
+      <c r="O65" s="15" t="s">
         <v>766</v>
-      </c>
-      <c r="O65" s="15" t="s">
-        <v>767</v>
       </c>
       <c r="P65" s="76" t="s">
         <v>108</v>
@@ -10985,7 +10989,7 @@
         <v>71</v>
       </c>
       <c r="S65" s="21" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="T65" s="49" t="s">
         <v>137</v>
@@ -10997,10 +11001,10 @@
         <v>342</v>
       </c>
       <c r="W65" s="96" t="s">
+        <v>768</v>
+      </c>
+      <c r="X65" s="95" t="s">
         <v>769</v>
-      </c>
-      <c r="X65" s="95" t="s">
-        <v>770</v>
       </c>
       <c r="Y65" s="32" t="s">
         <v>77</v>
@@ -11035,10 +11039,10 @@
     </row>
     <row r="66" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="94" t="s">
+        <v>770</v>
+      </c>
+      <c r="B66" s="94" t="s">
         <v>771</v>
-      </c>
-      <c r="B66" s="94" t="s">
-        <v>772</v>
       </c>
       <c r="C66" s="94"/>
       <c r="D66" s="15" t="s">
@@ -11057,28 +11061,28 @@
         <v>52</v>
       </c>
       <c r="I66" s="94" t="s">
+        <v>772</v>
+      </c>
+      <c r="J66" s="94" t="s">
         <v>773</v>
-      </c>
-      <c r="J66" s="94" t="s">
-        <v>774</v>
       </c>
       <c r="K66" s="94">
         <v>2022</v>
       </c>
       <c r="L66" s="15" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="M66" s="14" t="s">
         <v>43</v>
       </c>
       <c r="N66" s="42" t="s">
+        <v>775</v>
+      </c>
+      <c r="O66" s="94" t="s">
         <v>776</v>
       </c>
-      <c r="O66" s="94" t="s">
+      <c r="P66" s="93" t="s">
         <v>777</v>
-      </c>
-      <c r="P66" s="93" t="s">
-        <v>778</v>
       </c>
       <c r="Q66" s="93" t="s">
         <v>47</v>
@@ -11087,7 +11091,7 @@
         <v>48</v>
       </c>
       <c r="S66" s="94" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="T66" s="15" t="s">
         <v>158</v>
@@ -11134,17 +11138,17 @@
     </row>
     <row r="67" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="76" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B67" s="94" t="s">
         <v>1159</v>
-      </c>
-      <c r="B67" s="94" t="s">
-        <v>1160</v>
       </c>
       <c r="C67" s="94"/>
       <c r="D67" s="94" t="s">
         <v>35</v>
       </c>
       <c r="E67" s="94" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="F67" s="94" t="s">
         <v>37</v>
@@ -11156,25 +11160,25 @@
         <v>52</v>
       </c>
       <c r="I67" s="94" t="s">
+        <v>1161</v>
+      </c>
+      <c r="J67" s="94" t="s">
         <v>1162</v>
-      </c>
-      <c r="J67" s="94" t="s">
-        <v>1163</v>
       </c>
       <c r="K67" s="94">
         <v>2022</v>
       </c>
       <c r="L67" s="15" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="M67" s="94" t="s">
         <v>43</v>
       </c>
       <c r="N67" s="42" t="s">
+        <v>1164</v>
+      </c>
+      <c r="O67" s="94" t="s">
         <v>1165</v>
-      </c>
-      <c r="O67" s="94" t="s">
-        <v>1166</v>
       </c>
       <c r="P67" s="93" t="s">
         <v>340</v>
@@ -11186,7 +11190,7 @@
         <v>48</v>
       </c>
       <c r="S67" s="21" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="T67" s="94" t="s">
         <v>158</v>
@@ -11225,7 +11229,7 @@
         <v>52</v>
       </c>
       <c r="AF67" s="98" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="AG67" s="98">
         <v>3801</v>
@@ -11236,17 +11240,17 @@
     </row>
     <row r="68" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="94" t="s">
+        <v>779</v>
+      </c>
+      <c r="B68" s="76" t="s">
         <v>780</v>
-      </c>
-      <c r="B68" s="76" t="s">
-        <v>781</v>
       </c>
       <c r="C68" s="76"/>
       <c r="D68" s="94" t="s">
         <v>35</v>
       </c>
       <c r="E68" s="87" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="F68" s="94" t="s">
         <v>37</v>
@@ -11258,28 +11262,28 @@
         <v>190</v>
       </c>
       <c r="I68" s="76" t="s">
+        <v>782</v>
+      </c>
+      <c r="J68" s="76" t="s">
         <v>783</v>
-      </c>
-      <c r="J68" s="76" t="s">
-        <v>784</v>
       </c>
       <c r="K68" s="76">
         <v>2022</v>
       </c>
       <c r="L68" s="76" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="M68" s="76" t="s">
         <v>43</v>
       </c>
       <c r="N68" s="90" t="s">
+        <v>785</v>
+      </c>
+      <c r="O68" s="94" t="s">
         <v>786</v>
       </c>
-      <c r="O68" s="94" t="s">
+      <c r="P68" s="19" t="s">
         <v>787</v>
-      </c>
-      <c r="P68" s="19" t="s">
-        <v>788</v>
       </c>
       <c r="Q68" s="19" t="s">
         <v>47</v>
@@ -11288,7 +11292,7 @@
         <v>48</v>
       </c>
       <c r="S68" s="21" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="T68" s="13" t="s">
         <v>158</v>
@@ -11300,13 +11304,13 @@
         <v>74</v>
       </c>
       <c r="W68" s="39" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="X68" s="91" t="s">
         <v>418</v>
       </c>
       <c r="Y68" s="52" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="Z68" s="19" t="s">
         <v>56</v>
@@ -11338,7 +11342,7 @@
     </row>
     <row r="69" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="34" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B69" s="94" t="s">
         <v>77</v>
@@ -11360,25 +11364,25 @@
         <v>77</v>
       </c>
       <c r="I69" s="94" t="s">
+        <v>792</v>
+      </c>
+      <c r="J69" s="94" t="s">
         <v>793</v>
-      </c>
-      <c r="J69" s="94" t="s">
-        <v>794</v>
       </c>
       <c r="K69" s="94">
         <v>2022</v>
       </c>
       <c r="L69" s="87" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="M69" s="94" t="s">
         <v>105</v>
       </c>
       <c r="N69" s="42" t="s">
+        <v>795</v>
+      </c>
+      <c r="O69" s="94" t="s">
         <v>796</v>
-      </c>
-      <c r="O69" s="94" t="s">
-        <v>797</v>
       </c>
       <c r="P69" s="93" t="s">
         <v>461</v>
@@ -11390,10 +11394,10 @@
         <v>48</v>
       </c>
       <c r="S69" s="21" t="s">
+        <v>797</v>
+      </c>
+      <c r="T69" s="13" t="s">
         <v>798</v>
-      </c>
-      <c r="T69" s="13" t="s">
-        <v>799</v>
       </c>
       <c r="U69" s="93" t="s">
         <v>51</v>
@@ -11402,10 +11406,10 @@
         <v>74</v>
       </c>
       <c r="W69" s="39" t="s">
+        <v>799</v>
+      </c>
+      <c r="X69" s="38" t="s">
         <v>800</v>
-      </c>
-      <c r="X69" s="38" t="s">
-        <v>801</v>
       </c>
       <c r="Y69" s="97" t="s">
         <v>242</v>
@@ -11440,10 +11444,10 @@
     </row>
     <row r="70" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="s">
+        <v>801</v>
+      </c>
+      <c r="B70" s="76" t="s">
         <v>802</v>
-      </c>
-      <c r="B70" s="76" t="s">
-        <v>803</v>
       </c>
       <c r="C70" s="62"/>
       <c r="D70" s="14" t="s">
@@ -11462,22 +11466,22 @@
         <v>245</v>
       </c>
       <c r="I70" s="76" t="s">
+        <v>803</v>
+      </c>
+      <c r="J70" s="76" t="s">
         <v>804</v>
-      </c>
-      <c r="J70" s="76" t="s">
-        <v>805</v>
       </c>
       <c r="K70" s="76">
         <v>2022</v>
       </c>
       <c r="L70" s="76" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="M70" s="94" t="s">
         <v>105</v>
       </c>
       <c r="N70" s="90" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="O70" s="76" t="s">
         <v>236</v>
@@ -11492,10 +11496,10 @@
         <v>71</v>
       </c>
       <c r="S70" s="76" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="T70" s="76" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="U70" s="76" t="s">
         <v>51</v>
@@ -11504,10 +11508,10 @@
         <v>77</v>
       </c>
       <c r="W70" s="90" t="s">
+        <v>808</v>
+      </c>
+      <c r="X70" s="91" t="s">
         <v>809</v>
-      </c>
-      <c r="X70" s="91" t="s">
-        <v>810</v>
       </c>
       <c r="Y70" s="97" t="s">
         <v>242</v>
@@ -11522,7 +11526,7 @@
         <v>77</v>
       </c>
       <c r="AC70" s="91" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="AD70" s="90" t="s">
         <v>77</v>
@@ -11542,44 +11546,44 @@
     </row>
     <row r="71" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B71" s="77" t="s">
         <v>1198</v>
-      </c>
-      <c r="B71" s="77" t="s">
-        <v>1199</v>
       </c>
       <c r="C71" s="15"/>
       <c r="D71" s="77" t="s">
         <v>35</v>
       </c>
       <c r="E71" s="77" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="F71" s="13" t="s">
         <v>37</v>
       </c>
       <c r="G71" s="77" t="s">
+        <v>1200</v>
+      </c>
+      <c r="H71" s="15" t="s">
         <v>1201</v>
       </c>
-      <c r="H71" s="15" t="s">
+      <c r="I71" s="77" t="s">
         <v>1202</v>
       </c>
-      <c r="I71" s="77" t="s">
+      <c r="J71" s="77" t="s">
         <v>1203</v>
-      </c>
-      <c r="J71" s="77" t="s">
-        <v>1204</v>
       </c>
       <c r="K71" s="77">
         <v>2022</v>
       </c>
       <c r="L71" s="88" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="M71" s="77" t="s">
         <v>85</v>
       </c>
       <c r="N71" s="33" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="O71" s="77" t="s">
         <v>223</v>
@@ -11594,10 +11598,10 @@
         <v>48</v>
       </c>
       <c r="S71" s="34" t="s">
+        <v>1206</v>
+      </c>
+      <c r="T71" s="15" t="s">
         <v>1207</v>
-      </c>
-      <c r="T71" s="15" t="s">
-        <v>1208</v>
       </c>
       <c r="U71" s="93" t="s">
         <v>51</v>
@@ -11606,10 +11610,10 @@
         <v>74</v>
       </c>
       <c r="W71" s="45" t="s">
+        <v>1208</v>
+      </c>
+      <c r="X71" s="29" t="s">
         <v>1209</v>
-      </c>
-      <c r="X71" s="29" t="s">
-        <v>1210</v>
       </c>
       <c r="Y71" s="32" t="s">
         <v>77</v>
@@ -11624,7 +11628,7 @@
         <v>58</v>
       </c>
       <c r="AC71" s="29" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="AD71" s="47">
         <v>45352</v>
@@ -11633,7 +11637,7 @@
         <v>3</v>
       </c>
       <c r="AF71" s="33" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="AG71" s="33">
         <v>27</v>
@@ -11641,10 +11645,10 @@
     </row>
     <row r="72" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="15" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B72" s="13" t="s">
         <v>1213</v>
-      </c>
-      <c r="B72" s="13" t="s">
-        <v>1214</v>
       </c>
       <c r="C72" s="76" t="s">
         <v>325</v>
@@ -11653,7 +11657,7 @@
         <v>35</v>
       </c>
       <c r="E72" s="15" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="F72" s="15" t="s">
         <v>37</v>
@@ -11662,28 +11666,28 @@
         <v>77</v>
       </c>
       <c r="H72" s="13" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="I72" s="13" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="J72" s="77" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="K72" s="13">
         <v>2023</v>
       </c>
       <c r="L72" s="15" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="M72" s="13" t="s">
         <v>43</v>
       </c>
       <c r="N72" s="17" t="s">
+        <v>1217</v>
+      </c>
+      <c r="O72" s="13" t="s">
         <v>1218</v>
-      </c>
-      <c r="O72" s="13" t="s">
-        <v>1219</v>
       </c>
       <c r="P72" s="84" t="s">
         <v>210</v>
@@ -11695,10 +11699,10 @@
         <v>48</v>
       </c>
       <c r="S72" s="21" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="T72" s="13" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="U72" s="89" t="s">
         <v>51</v>
@@ -11707,10 +11711,10 @@
         <v>77</v>
       </c>
       <c r="W72" s="24" t="s">
+        <v>1220</v>
+      </c>
+      <c r="X72" s="23" t="s">
         <v>1221</v>
-      </c>
-      <c r="X72" s="23" t="s">
-        <v>1222</v>
       </c>
       <c r="Y72" s="32" t="s">
         <v>77</v>
@@ -11725,7 +11729,7 @@
         <v>58</v>
       </c>
       <c r="AC72" s="29" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="AD72" s="47">
         <v>45323</v>
@@ -11734,7 +11738,7 @@
         <v>2</v>
       </c>
       <c r="AF72" s="33" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="AG72" s="33">
         <v>29</v>
@@ -11745,64 +11749,64 @@
     </row>
     <row r="73" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="34" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B73" s="15" t="s">
         <v>1223</v>
       </c>
-      <c r="B73" s="15" t="s">
+      <c r="C73" s="13" t="s">
         <v>1224</v>
-      </c>
-      <c r="C73" s="13" t="s">
-        <v>1225</v>
       </c>
       <c r="D73" s="28" t="s">
         <v>35</v>
       </c>
       <c r="E73" s="15" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="F73" s="15" t="s">
         <v>37</v>
       </c>
       <c r="G73" s="13" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="H73" s="15" t="s">
         <v>52</v>
       </c>
       <c r="I73" s="13" t="s">
+        <v>1227</v>
+      </c>
+      <c r="J73" s="13" t="s">
         <v>1228</v>
-      </c>
-      <c r="J73" s="13" t="s">
-        <v>1229</v>
       </c>
       <c r="K73" s="13">
         <v>2024</v>
       </c>
       <c r="L73" s="15" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="M73" s="13" t="s">
         <v>43</v>
       </c>
       <c r="N73" s="92" t="s">
+        <v>1230</v>
+      </c>
+      <c r="O73" s="15" t="s">
         <v>1231</v>
-      </c>
-      <c r="O73" s="15" t="s">
-        <v>1232</v>
       </c>
       <c r="P73" s="18" t="s">
         <v>210</v>
       </c>
       <c r="Q73" s="84" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="R73" s="20" t="s">
         <v>48</v>
       </c>
       <c r="S73" s="76" t="s">
+        <v>1206</v>
+      </c>
+      <c r="T73" s="13" t="s">
         <v>1207</v>
-      </c>
-      <c r="T73" s="13" t="s">
-        <v>1208</v>
       </c>
       <c r="U73" s="93" t="s">
         <v>52</v>
@@ -11838,7 +11842,7 @@
         <v>52</v>
       </c>
       <c r="AF73" s="33" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="AG73" s="31" t="s">
         <v>77</v>
@@ -11849,17 +11853,17 @@
     </row>
     <row r="74" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="77" t="s">
+        <v>811</v>
+      </c>
+      <c r="B74" s="13" t="s">
         <v>812</v>
-      </c>
-      <c r="B74" s="13" t="s">
-        <v>813</v>
       </c>
       <c r="C74" s="15"/>
       <c r="D74" s="15" t="s">
         <v>35</v>
       </c>
       <c r="E74" s="15" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="F74" s="15" t="s">
         <v>37</v>
@@ -11868,25 +11872,25 @@
         <v>386</v>
       </c>
       <c r="H74" s="13" t="s">
+        <v>814</v>
+      </c>
+      <c r="I74" s="13" t="s">
         <v>815</v>
       </c>
-      <c r="I74" s="13" t="s">
+      <c r="J74" s="13" t="s">
         <v>816</v>
-      </c>
-      <c r="J74" s="13" t="s">
-        <v>817</v>
       </c>
       <c r="K74" s="13">
         <v>2022</v>
       </c>
       <c r="L74" s="15" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="M74" s="13" t="s">
         <v>43</v>
       </c>
       <c r="N74" s="17" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="O74" s="13" t="s">
         <v>223</v>
@@ -11901,10 +11905,10 @@
         <v>48</v>
       </c>
       <c r="S74" s="21" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="T74" s="13" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="U74" s="93" t="s">
         <v>51</v>
@@ -11913,10 +11917,10 @@
         <v>91</v>
       </c>
       <c r="W74" s="24" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="X74" s="23" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="Y74" s="30" t="s">
         <v>77</v>
@@ -11931,7 +11935,7 @@
         <v>58</v>
       </c>
       <c r="AC74" s="23" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AD74" s="66">
         <v>45352</v>
@@ -11951,17 +11955,17 @@
     </row>
     <row r="75" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="15" t="s">
+        <v>822</v>
+      </c>
+      <c r="B75" s="13" t="s">
         <v>823</v>
-      </c>
-      <c r="B75" s="13" t="s">
-        <v>824</v>
       </c>
       <c r="C75" s="13"/>
       <c r="D75" s="15" t="s">
         <v>35</v>
       </c>
       <c r="E75" s="15" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="F75" s="15" t="s">
         <v>37</v>
@@ -11973,25 +11977,25 @@
         <v>77</v>
       </c>
       <c r="I75" s="13" t="s">
+        <v>825</v>
+      </c>
+      <c r="J75" s="13" t="s">
         <v>826</v>
-      </c>
-      <c r="J75" s="13" t="s">
-        <v>827</v>
       </c>
       <c r="K75" s="13">
         <v>2022</v>
       </c>
       <c r="L75" s="15" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="M75" s="13" t="s">
         <v>43</v>
       </c>
       <c r="N75" s="17" t="s">
+        <v>828</v>
+      </c>
+      <c r="O75" s="15" t="s">
         <v>829</v>
-      </c>
-      <c r="O75" s="15" t="s">
-        <v>830</v>
       </c>
       <c r="P75" s="93" t="s">
         <v>476</v>
@@ -12003,7 +12007,7 @@
         <v>48</v>
       </c>
       <c r="S75" s="21" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="T75" s="13" t="s">
         <v>252</v>
@@ -12015,13 +12019,13 @@
         <v>77</v>
       </c>
       <c r="W75" s="24" t="s">
+        <v>831</v>
+      </c>
+      <c r="X75" s="23" t="s">
         <v>832</v>
       </c>
-      <c r="X75" s="23" t="s">
-        <v>833</v>
-      </c>
       <c r="Y75" s="52" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="Z75" s="19" t="s">
         <v>56</v>
@@ -12053,38 +12057,38 @@
     </row>
     <row r="76" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="76" t="s">
+        <v>833</v>
+      </c>
+      <c r="B76" s="15" t="s">
         <v>834</v>
-      </c>
-      <c r="B76" s="15" t="s">
-        <v>835</v>
       </c>
       <c r="C76" s="77"/>
       <c r="D76" s="94" t="s">
         <v>35</v>
       </c>
       <c r="E76" s="15" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F76" s="15" t="s">
         <v>273</v>
       </c>
       <c r="G76" s="15" t="s">
+        <v>836</v>
+      </c>
+      <c r="H76" s="13" t="s">
         <v>837</v>
       </c>
-      <c r="H76" s="13" t="s">
+      <c r="I76" s="15" t="s">
         <v>838</v>
       </c>
-      <c r="I76" s="15" t="s">
+      <c r="J76" s="15" t="s">
         <v>839</v>
-      </c>
-      <c r="J76" s="15" t="s">
-        <v>840</v>
       </c>
       <c r="K76" s="15">
         <v>2022</v>
       </c>
       <c r="L76" s="15" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="M76" s="15" t="s">
         <v>43</v>
@@ -12093,19 +12097,19 @@
         <v>122</v>
       </c>
       <c r="O76" s="15" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="P76" s="18" t="s">
         <v>340</v>
       </c>
       <c r="Q76" s="84" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="R76" s="20" t="s">
         <v>48</v>
       </c>
       <c r="S76" s="21" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="T76" s="13" t="s">
         <v>158</v>
@@ -12117,7 +12121,7 @@
         <v>148</v>
       </c>
       <c r="W76" s="24" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="X76" s="23" t="s">
         <v>241</v>
@@ -12155,10 +12159,10 @@
     </row>
     <row r="77" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="15" t="s">
+        <v>845</v>
+      </c>
+      <c r="B77" s="15" t="s">
         <v>846</v>
-      </c>
-      <c r="B77" s="15" t="s">
-        <v>847</v>
       </c>
       <c r="C77" s="76" t="s">
         <v>325</v>
@@ -12167,49 +12171,49 @@
         <v>35</v>
       </c>
       <c r="E77" s="77" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="F77" s="15" t="s">
         <v>273</v>
       </c>
       <c r="G77" s="15" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="H77" s="15" t="s">
+        <v>848</v>
+      </c>
+      <c r="I77" s="15" t="s">
         <v>849</v>
       </c>
-      <c r="I77" s="15" t="s">
-        <v>850</v>
-      </c>
       <c r="J77" s="15" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="K77" s="15">
         <v>2023</v>
       </c>
       <c r="L77" s="15" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="M77" s="15" t="s">
         <v>43</v>
       </c>
       <c r="N77" s="92" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="O77" s="15" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="P77" s="18" t="s">
         <v>340</v>
       </c>
       <c r="Q77" s="84" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="R77" s="84" t="s">
         <v>48</v>
       </c>
       <c r="S77" s="21" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="T77" s="15" t="s">
         <v>158</v>
@@ -12227,7 +12231,7 @@
         <v>241</v>
       </c>
       <c r="Y77" s="32" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="Z77" s="19" t="s">
         <v>171</v>
@@ -12259,7 +12263,7 @@
     </row>
     <row r="78" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="15" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B78" s="76" t="s">
         <v>77</v>
@@ -12281,22 +12285,22 @@
         <v>101</v>
       </c>
       <c r="I78" s="76" t="s">
+        <v>854</v>
+      </c>
+      <c r="J78" s="76" t="s">
         <v>855</v>
-      </c>
-      <c r="J78" s="76" t="s">
-        <v>856</v>
       </c>
       <c r="K78" s="76">
         <v>2022</v>
       </c>
       <c r="L78" s="76" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="M78" s="79" t="s">
         <v>105</v>
       </c>
       <c r="N78" s="90" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="O78" s="76" t="s">
         <v>236</v>
@@ -12311,10 +12315,10 @@
         <v>71</v>
       </c>
       <c r="S78" s="76" t="s">
+        <v>858</v>
+      </c>
+      <c r="T78" s="76" t="s">
         <v>859</v>
-      </c>
-      <c r="T78" s="76" t="s">
-        <v>860</v>
       </c>
       <c r="U78" s="15" t="s">
         <v>51</v>
@@ -12323,25 +12327,25 @@
         <v>77</v>
       </c>
       <c r="W78" s="90" t="s">
+        <v>860</v>
+      </c>
+      <c r="X78" s="91" t="s">
         <v>861</v>
       </c>
-      <c r="X78" s="91" t="s">
+      <c r="Y78" s="91" t="s">
         <v>862</v>
-      </c>
-      <c r="Y78" s="91" t="s">
-        <v>863</v>
       </c>
       <c r="Z78" s="76" t="s">
         <v>56</v>
       </c>
       <c r="AA78" s="19" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AB78" s="91" t="s">
         <v>58</v>
       </c>
       <c r="AC78" s="91" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="AD78" s="82">
         <v>45413</v>
@@ -12361,50 +12365,50 @@
     </row>
     <row r="79" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="77" t="s">
+        <v>865</v>
+      </c>
+      <c r="B79" s="15" t="s">
         <v>866</v>
-      </c>
-      <c r="B79" s="15" t="s">
-        <v>867</v>
       </c>
       <c r="C79" s="15"/>
       <c r="D79" s="15" t="s">
         <v>35</v>
       </c>
       <c r="E79" s="15" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="F79" s="15" t="s">
         <v>118</v>
       </c>
       <c r="G79" s="15" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H79" s="15" t="s">
         <v>52</v>
       </c>
       <c r="I79" s="15" t="s">
+        <v>868</v>
+      </c>
+      <c r="J79" s="15" t="s">
         <v>869</v>
-      </c>
-      <c r="J79" s="15" t="s">
-        <v>870</v>
       </c>
       <c r="K79" s="15">
         <v>2022</v>
       </c>
       <c r="L79" s="64" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="M79" s="15" t="s">
         <v>43</v>
       </c>
       <c r="N79" s="92" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="O79" s="15" t="s">
         <v>223</v>
       </c>
       <c r="P79" s="83" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="Q79" s="19" t="s">
         <v>47</v>
@@ -12413,10 +12417,10 @@
         <v>48</v>
       </c>
       <c r="S79" s="21" t="s">
+        <v>873</v>
+      </c>
+      <c r="T79" s="15" t="s">
         <v>874</v>
-      </c>
-      <c r="T79" s="15" t="s">
-        <v>875</v>
       </c>
       <c r="U79" s="84" t="s">
         <v>253</v>
@@ -12460,44 +12464,44 @@
     </row>
     <row r="80" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="76" t="s">
+        <v>875</v>
+      </c>
+      <c r="B80" s="77" t="s">
         <v>876</v>
-      </c>
-      <c r="B80" s="77" t="s">
-        <v>877</v>
       </c>
       <c r="C80" s="13"/>
       <c r="D80" s="77" t="s">
         <v>35</v>
       </c>
       <c r="E80" s="15" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="F80" s="15" t="s">
         <v>37</v>
       </c>
       <c r="G80" s="15" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H80" s="77" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="I80" s="13" t="s">
+        <v>868</v>
+      </c>
+      <c r="J80" s="13" t="s">
         <v>869</v>
-      </c>
-      <c r="J80" s="13" t="s">
-        <v>870</v>
       </c>
       <c r="K80" s="13">
         <v>2022</v>
       </c>
       <c r="L80" s="64" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="M80" s="13" t="s">
         <v>43</v>
       </c>
       <c r="N80" s="33" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="O80" s="77" t="s">
         <v>223</v>
@@ -12512,22 +12516,22 @@
         <v>48</v>
       </c>
       <c r="S80" s="21" t="s">
+        <v>873</v>
+      </c>
+      <c r="T80" s="13" t="s">
         <v>874</v>
-      </c>
-      <c r="T80" s="13" t="s">
-        <v>875</v>
       </c>
       <c r="U80" s="20" t="s">
         <v>51</v>
       </c>
       <c r="V80" s="29" t="s">
+        <v>878</v>
+      </c>
+      <c r="W80" s="45" t="s">
         <v>879</v>
       </c>
-      <c r="W80" s="45" t="s">
+      <c r="X80" s="29" t="s">
         <v>880</v>
-      </c>
-      <c r="X80" s="29" t="s">
-        <v>881</v>
       </c>
       <c r="Y80" s="32" t="s">
         <v>242</v>
@@ -12542,7 +12546,7 @@
         <v>58</v>
       </c>
       <c r="AC80" s="29" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="AD80" s="31">
         <v>2</v>
@@ -12562,50 +12566,50 @@
     </row>
     <row r="81" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="15" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B81" s="76" t="s">
         <v>1183</v>
-      </c>
-      <c r="B81" s="76" t="s">
-        <v>1184</v>
       </c>
       <c r="C81" s="76"/>
       <c r="D81" s="94" t="s">
         <v>35</v>
       </c>
       <c r="E81" s="94" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F81" s="94" t="s">
         <v>37</v>
       </c>
       <c r="G81" s="94" t="s">
+        <v>1185</v>
+      </c>
+      <c r="H81" s="94" t="s">
         <v>1186</v>
       </c>
-      <c r="H81" s="94" t="s">
+      <c r="I81" s="76" t="s">
         <v>1187</v>
       </c>
-      <c r="I81" s="76" t="s">
+      <c r="J81" s="76" t="s">
         <v>1188</v>
-      </c>
-      <c r="J81" s="76" t="s">
-        <v>1189</v>
       </c>
       <c r="K81" s="76">
         <v>2022</v>
       </c>
       <c r="L81" s="76" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="M81" s="76" t="s">
         <v>43</v>
       </c>
       <c r="N81" s="90" t="s">
+        <v>1190</v>
+      </c>
+      <c r="O81" s="94" t="s">
         <v>1191</v>
       </c>
-      <c r="O81" s="94" t="s">
+      <c r="P81" s="93" t="s">
         <v>1192</v>
-      </c>
-      <c r="P81" s="93" t="s">
-        <v>1193</v>
       </c>
       <c r="Q81" s="19" t="s">
         <v>47</v>
@@ -12614,7 +12618,7 @@
         <v>71</v>
       </c>
       <c r="S81" s="94" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="T81" s="15" t="s">
         <v>158</v>
@@ -12626,10 +12630,10 @@
         <v>77</v>
       </c>
       <c r="W81" s="39" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="X81" s="38" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="Y81" s="97" t="s">
         <v>140</v>
@@ -12644,7 +12648,7 @@
         <v>58</v>
       </c>
       <c r="AC81" s="38" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="AD81" s="66">
         <v>45323</v>
@@ -12653,7 +12657,7 @@
         <v>2</v>
       </c>
       <c r="AF81" s="42" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="AG81" s="31" t="s">
         <v>77</v>
@@ -12664,17 +12668,17 @@
     </row>
     <row r="82" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="13" t="s">
+        <v>882</v>
+      </c>
+      <c r="B82" s="15" t="s">
         <v>883</v>
-      </c>
-      <c r="B82" s="15" t="s">
-        <v>884</v>
       </c>
       <c r="C82" s="94"/>
       <c r="D82" s="14" t="s">
         <v>35</v>
       </c>
       <c r="E82" s="15" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="F82" s="14" t="s">
         <v>37</v>
@@ -12686,28 +12690,28 @@
         <v>77</v>
       </c>
       <c r="I82" s="15" t="s">
+        <v>885</v>
+      </c>
+      <c r="J82" s="15" t="s">
         <v>886</v>
-      </c>
-      <c r="J82" s="15" t="s">
-        <v>887</v>
       </c>
       <c r="K82" s="15">
         <v>2022</v>
       </c>
       <c r="L82" s="15" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="M82" s="15" t="s">
         <v>43</v>
       </c>
       <c r="N82" s="92" t="s">
+        <v>888</v>
+      </c>
+      <c r="O82" s="15" t="s">
         <v>889</v>
       </c>
-      <c r="O82" s="15" t="s">
+      <c r="P82" s="84" t="s">
         <v>890</v>
-      </c>
-      <c r="P82" s="84" t="s">
-        <v>891</v>
       </c>
       <c r="Q82" s="19" t="s">
         <v>47</v>
@@ -12716,10 +12720,10 @@
         <v>48</v>
       </c>
       <c r="S82" s="21" t="s">
+        <v>891</v>
+      </c>
+      <c r="T82" s="15" t="s">
         <v>892</v>
-      </c>
-      <c r="T82" s="15" t="s">
-        <v>893</v>
       </c>
       <c r="U82" s="84" t="s">
         <v>51</v>
@@ -12728,10 +12732,10 @@
         <v>74</v>
       </c>
       <c r="W82" s="96" t="s">
+        <v>893</v>
+      </c>
+      <c r="X82" s="95" t="s">
         <v>894</v>
-      </c>
-      <c r="X82" s="95" t="s">
-        <v>895</v>
       </c>
       <c r="Y82" s="32" t="s">
         <v>77</v>
@@ -12766,17 +12770,17 @@
     </row>
     <row r="83" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="14" t="s">
+        <v>895</v>
+      </c>
+      <c r="B83" s="15" t="s">
         <v>896</v>
-      </c>
-      <c r="B83" s="15" t="s">
-        <v>897</v>
       </c>
       <c r="C83" s="15"/>
       <c r="D83" s="76" t="s">
         <v>35</v>
       </c>
       <c r="E83" s="15" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="F83" s="34" t="s">
         <v>37</v>
@@ -12785,28 +12789,28 @@
         <v>77</v>
       </c>
       <c r="H83" s="15" t="s">
+        <v>898</v>
+      </c>
+      <c r="I83" s="15" t="s">
         <v>899</v>
       </c>
-      <c r="I83" s="15" t="s">
+      <c r="J83" s="15" t="s">
         <v>900</v>
-      </c>
-      <c r="J83" s="15" t="s">
-        <v>901</v>
       </c>
       <c r="K83" s="15">
         <v>2022</v>
       </c>
       <c r="L83" s="15" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="M83" s="15" t="s">
         <v>43</v>
       </c>
       <c r="N83" s="92" t="s">
+        <v>902</v>
+      </c>
+      <c r="O83" s="84" t="s">
         <v>903</v>
-      </c>
-      <c r="O83" s="84" t="s">
-        <v>904</v>
       </c>
       <c r="P83" s="84" t="s">
         <v>224</v>
@@ -12818,10 +12822,10 @@
         <v>48</v>
       </c>
       <c r="S83" s="21" t="s">
+        <v>904</v>
+      </c>
+      <c r="T83" s="15" t="s">
         <v>905</v>
-      </c>
-      <c r="T83" s="15" t="s">
-        <v>906</v>
       </c>
       <c r="U83" s="19" t="s">
         <v>51</v>
@@ -12830,13 +12834,13 @@
         <v>267</v>
       </c>
       <c r="W83" s="96" t="s">
+        <v>906</v>
+      </c>
+      <c r="X83" s="95" t="s">
         <v>907</v>
       </c>
-      <c r="X83" s="95" t="s">
+      <c r="Y83" s="52" t="s">
         <v>908</v>
-      </c>
-      <c r="Y83" s="52" t="s">
-        <v>909</v>
       </c>
       <c r="Z83" s="19" t="s">
         <v>56</v>
@@ -12848,7 +12852,7 @@
         <v>58</v>
       </c>
       <c r="AC83" s="95" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="AD83" s="58">
         <v>3</v>
@@ -12868,19 +12872,19 @@
     </row>
     <row r="84" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="63" t="s">
+        <v>910</v>
+      </c>
+      <c r="B84" s="84" t="s">
         <v>911</v>
       </c>
-      <c r="B84" s="84" t="s">
+      <c r="C84" s="63" t="s">
         <v>912</v>
-      </c>
-      <c r="C84" s="63" t="s">
-        <v>913</v>
       </c>
       <c r="D84" s="76" t="s">
         <v>35</v>
       </c>
       <c r="E84" s="84" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="F84" s="76" t="s">
         <v>37</v>
@@ -12889,28 +12893,28 @@
         <v>77</v>
       </c>
       <c r="H84" s="13" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="I84" s="84" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="J84" s="84" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="K84" s="58">
         <v>2023</v>
       </c>
       <c r="L84" s="84" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="M84" s="84" t="s">
         <v>43</v>
       </c>
       <c r="N84" s="58" t="s">
+        <v>916</v>
+      </c>
+      <c r="O84" s="84" t="s">
         <v>917</v>
-      </c>
-      <c r="O84" s="84" t="s">
-        <v>918</v>
       </c>
       <c r="P84" s="84" t="s">
         <v>224</v>
@@ -12922,10 +12926,10 @@
         <v>48</v>
       </c>
       <c r="S84" s="21" t="s">
+        <v>904</v>
+      </c>
+      <c r="T84" s="13" t="s">
         <v>905</v>
-      </c>
-      <c r="T84" s="13" t="s">
-        <v>906</v>
       </c>
       <c r="U84" s="93" t="s">
         <v>51</v>
@@ -12940,7 +12944,7 @@
         <v>52</v>
       </c>
       <c r="Y84" s="52" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="Z84" s="19" t="s">
         <v>56</v>
@@ -12952,7 +12956,7 @@
         <v>227</v>
       </c>
       <c r="AC84" s="23" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="AD84" s="58">
         <v>3</v>
@@ -12972,17 +12976,17 @@
     </row>
     <row r="85" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="94" t="s">
+        <v>918</v>
+      </c>
+      <c r="B85" s="94" t="s">
         <v>919</v>
-      </c>
-      <c r="B85" s="94" t="s">
-        <v>920</v>
       </c>
       <c r="C85" s="15"/>
       <c r="D85" s="94" t="s">
         <v>35</v>
       </c>
       <c r="E85" s="94" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="F85" s="94" t="s">
         <v>37</v>
@@ -12991,28 +12995,28 @@
         <v>348</v>
       </c>
       <c r="H85" s="94" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="I85" s="94" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="J85" s="94" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="K85" s="94">
         <v>2022</v>
       </c>
       <c r="L85" s="94" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="M85" s="94" t="s">
         <v>261</v>
       </c>
       <c r="N85" s="42" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="O85" s="94" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="P85" s="84" t="s">
         <v>224</v>
@@ -13024,7 +13028,7 @@
         <v>48</v>
       </c>
       <c r="S85" s="94" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="T85" s="94" t="s">
         <v>158</v>
@@ -13071,17 +13075,17 @@
     </row>
     <row r="86" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="76" t="s">
+        <v>924</v>
+      </c>
+      <c r="B86" s="14" t="s">
         <v>925</v>
-      </c>
-      <c r="B86" s="14" t="s">
-        <v>926</v>
       </c>
       <c r="C86" s="15"/>
       <c r="D86" s="14" t="s">
         <v>35</v>
       </c>
       <c r="E86" s="35" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="F86" s="14" t="s">
         <v>37</v>
@@ -13090,28 +13094,28 @@
         <v>348</v>
       </c>
       <c r="H86" s="94" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="I86" s="14" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="J86" s="14" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="K86" s="14">
         <v>2022</v>
       </c>
       <c r="L86" s="35" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="M86" s="14" t="s">
         <v>261</v>
       </c>
       <c r="N86" s="42" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="O86" s="14" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="P86" s="19" t="s">
         <v>302</v>
@@ -13123,7 +13127,7 @@
         <v>48</v>
       </c>
       <c r="S86" s="21" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="T86" s="94" t="s">
         <v>158</v>
@@ -13173,16 +13177,16 @@
     </row>
     <row r="87" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="94" t="s">
+        <v>928</v>
+      </c>
+      <c r="B87" s="76" t="s">
         <v>929</v>
-      </c>
-      <c r="B87" s="76" t="s">
-        <v>930</v>
       </c>
       <c r="D87" s="76" t="s">
         <v>35</v>
       </c>
       <c r="E87" s="76" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="F87" s="76" t="s">
         <v>37</v>
@@ -13191,25 +13195,25 @@
         <v>77</v>
       </c>
       <c r="H87" s="76" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="I87" s="76" t="s">
+        <v>931</v>
+      </c>
+      <c r="J87" s="76" t="s">
         <v>932</v>
-      </c>
-      <c r="J87" s="76" t="s">
-        <v>933</v>
       </c>
       <c r="K87" s="76">
         <v>2022</v>
       </c>
       <c r="L87" s="76" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="M87" s="76" t="s">
         <v>43</v>
       </c>
       <c r="N87" s="90" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="O87" s="76" t="s">
         <v>107</v>
@@ -13224,10 +13228,10 @@
         <v>109</v>
       </c>
       <c r="S87" s="21" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="T87" s="14" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="U87" s="15" t="s">
         <v>51</v>
@@ -13236,13 +13240,13 @@
         <v>148</v>
       </c>
       <c r="W87" s="90" t="s">
+        <v>936</v>
+      </c>
+      <c r="X87" s="91" t="s">
         <v>937</v>
       </c>
-      <c r="X87" s="91" t="s">
+      <c r="Y87" s="91" t="s">
         <v>938</v>
-      </c>
-      <c r="Y87" s="91" t="s">
-        <v>939</v>
       </c>
       <c r="Z87" s="76" t="s">
         <v>56</v>
@@ -13254,7 +13258,7 @@
         <v>227</v>
       </c>
       <c r="AC87" s="91" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="AD87" s="82">
         <v>45323</v>
@@ -13274,47 +13278,47 @@
     </row>
     <row r="88" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="76" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B88" s="94" t="s">
         <v>1053</v>
-      </c>
-      <c r="B88" s="94" t="s">
-        <v>1054</v>
       </c>
       <c r="C88" s="94"/>
       <c r="D88" s="94" t="s">
         <v>35</v>
       </c>
       <c r="E88" s="87" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="F88" s="94" t="s">
         <v>37</v>
       </c>
       <c r="G88" s="94" t="s">
+        <v>1055</v>
+      </c>
+      <c r="H88" s="100" t="s">
+        <v>1234</v>
+      </c>
+      <c r="I88" s="94" t="s">
         <v>1056</v>
       </c>
-      <c r="H88" s="100" t="s">
-        <v>1235</v>
-      </c>
-      <c r="I88" s="94" t="s">
+      <c r="J88" s="94" t="s">
         <v>1057</v>
-      </c>
-      <c r="J88" s="94" t="s">
-        <v>1058</v>
       </c>
       <c r="K88" s="94">
         <v>2022</v>
       </c>
       <c r="L88" s="94" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="M88" s="94" t="s">
         <v>43</v>
       </c>
       <c r="N88" s="42" t="s">
+        <v>1059</v>
+      </c>
+      <c r="O88" s="94" t="s">
         <v>1060</v>
-      </c>
-      <c r="O88" s="94" t="s">
-        <v>1061</v>
       </c>
       <c r="P88" s="19" t="s">
         <v>171</v>
@@ -13323,13 +13327,13 @@
         <v>47</v>
       </c>
       <c r="R88" s="19" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="S88" s="21" t="s">
+        <v>1061</v>
+      </c>
+      <c r="T88" s="94" t="s">
         <v>1062</v>
-      </c>
-      <c r="T88" s="94" t="s">
-        <v>1063</v>
       </c>
       <c r="U88" s="19" t="s">
         <v>51</v>
@@ -13338,10 +13342,10 @@
         <v>77</v>
       </c>
       <c r="W88" s="39" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="X88" s="38" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="Y88" s="52" t="s">
         <v>309</v>
@@ -13350,25 +13354,25 @@
         <v>56</v>
       </c>
       <c r="AA88" s="19" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AB88" s="38" t="s">
         <v>227</v>
       </c>
       <c r="AC88" s="97" t="s">
+        <v>1064</v>
+      </c>
+      <c r="AD88" s="41" t="s">
         <v>1065</v>
       </c>
-      <c r="AD88" s="41" t="s">
+      <c r="AE88" s="41" t="s">
         <v>1066</v>
       </c>
-      <c r="AE88" s="41" t="s">
+      <c r="AF88" s="42" t="s">
         <v>1067</v>
       </c>
-      <c r="AF88" s="42" t="s">
+      <c r="AG88" s="42" t="s">
         <v>1068</v>
-      </c>
-      <c r="AG88" s="42" t="s">
-        <v>1069</v>
       </c>
       <c r="AH88" s="12"/>
       <c r="AI88" s="12"/>
@@ -13478,7 +13482,7 @@
     </row>
     <row r="90" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="94" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B90" s="34" t="s">
         <v>77</v>
@@ -13500,25 +13504,25 @@
         <v>77</v>
       </c>
       <c r="I90" s="15" t="s">
+        <v>1149</v>
+      </c>
+      <c r="J90" s="15" t="s">
         <v>1150</v>
-      </c>
-      <c r="J90" s="15" t="s">
-        <v>1151</v>
       </c>
       <c r="K90" s="15">
         <v>2023</v>
       </c>
       <c r="L90" s="15" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="M90" s="34" t="s">
         <v>105</v>
       </c>
       <c r="N90" s="92" t="s">
+        <v>1152</v>
+      </c>
+      <c r="O90" s="15" t="s">
         <v>1153</v>
-      </c>
-      <c r="O90" s="15" t="s">
-        <v>1154</v>
       </c>
       <c r="P90" s="19" t="s">
         <v>340</v>
@@ -13527,13 +13531,13 @@
         <v>47</v>
       </c>
       <c r="R90" s="19" t="s">
+        <v>1154</v>
+      </c>
+      <c r="S90" s="21" t="s">
         <v>1155</v>
       </c>
-      <c r="S90" s="21" t="s">
+      <c r="T90" s="15" t="s">
         <v>1156</v>
-      </c>
-      <c r="T90" s="15" t="s">
-        <v>1157</v>
       </c>
       <c r="U90" s="15" t="s">
         <v>51</v>
@@ -13569,7 +13573,7 @@
         <v>77</v>
       </c>
       <c r="AF90" s="92" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="AG90" s="58" t="s">
         <v>77</v>
@@ -13580,17 +13584,17 @@
     </row>
     <row r="91" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="15" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B91" s="14" t="s">
         <v>1121</v>
-      </c>
-      <c r="B91" s="14" t="s">
-        <v>1122</v>
       </c>
       <c r="C91" s="94"/>
       <c r="D91" s="14" t="s">
         <v>35</v>
       </c>
       <c r="E91" s="87" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="F91" s="35" t="s">
         <v>37</v>
@@ -13599,28 +13603,28 @@
         <v>77</v>
       </c>
       <c r="H91" s="14" t="s">
+        <v>1123</v>
+      </c>
+      <c r="I91" s="14" t="s">
         <v>1124</v>
       </c>
-      <c r="I91" s="14" t="s">
+      <c r="J91" s="14" t="s">
         <v>1125</v>
-      </c>
-      <c r="J91" s="14" t="s">
-        <v>1126</v>
       </c>
       <c r="K91" s="14">
         <v>2023</v>
       </c>
       <c r="L91" s="94" t="s">
+        <v>1126</v>
+      </c>
+      <c r="M91" s="14" t="s">
+        <v>604</v>
+      </c>
+      <c r="N91" s="42" t="s">
         <v>1127</v>
       </c>
-      <c r="M91" s="14" t="s">
-        <v>605</v>
-      </c>
-      <c r="N91" s="42" t="s">
+      <c r="O91" s="14" t="s">
         <v>1128</v>
-      </c>
-      <c r="O91" s="14" t="s">
-        <v>1129</v>
       </c>
       <c r="P91" s="54" t="s">
         <v>171</v>
@@ -13632,7 +13636,7 @@
         <v>48</v>
       </c>
       <c r="S91" s="21" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="T91" s="15" t="s">
         <v>252</v>
@@ -13644,13 +13648,13 @@
         <v>77</v>
       </c>
       <c r="W91" s="39" t="s">
+        <v>1130</v>
+      </c>
+      <c r="X91" s="38" t="s">
+        <v>1036</v>
+      </c>
+      <c r="Y91" s="52" t="s">
         <v>1131</v>
-      </c>
-      <c r="X91" s="38" t="s">
-        <v>1037</v>
-      </c>
-      <c r="Y91" s="52" t="s">
-        <v>1132</v>
       </c>
       <c r="Z91" s="19" t="s">
         <v>171</v>
@@ -13671,10 +13675,10 @@
         <v>77</v>
       </c>
       <c r="AF91" s="90" t="s">
+        <v>1132</v>
+      </c>
+      <c r="AG91" s="90" t="s">
         <v>1133</v>
-      </c>
-      <c r="AG91" s="90" t="s">
-        <v>1134</v>
       </c>
       <c r="AH91" s="43"/>
       <c r="AI91" s="43"/>
@@ -13682,17 +13686,17 @@
     </row>
     <row r="92" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="94" t="s">
+        <v>940</v>
+      </c>
+      <c r="B92" s="13" t="s">
         <v>941</v>
-      </c>
-      <c r="B92" s="13" t="s">
-        <v>942</v>
       </c>
       <c r="C92" s="13"/>
       <c r="D92" s="76" t="s">
         <v>35</v>
       </c>
       <c r="E92" s="15" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="F92" s="76" t="s">
         <v>37</v>
@@ -13704,22 +13708,22 @@
         <v>52</v>
       </c>
       <c r="I92" s="13" t="s">
+        <v>943</v>
+      </c>
+      <c r="J92" s="13" t="s">
         <v>944</v>
-      </c>
-      <c r="J92" s="13" t="s">
-        <v>945</v>
       </c>
       <c r="K92" s="13">
         <v>2023</v>
       </c>
       <c r="L92" s="77" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="M92" s="13" t="s">
         <v>261</v>
       </c>
       <c r="N92" s="17" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="O92" s="13" t="s">
         <v>236</v>
@@ -13784,17 +13788,17 @@
     </row>
     <row r="93" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="15" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B93" s="77" t="s">
         <v>1135</v>
-      </c>
-      <c r="B93" s="77" t="s">
-        <v>1136</v>
       </c>
       <c r="C93" s="15"/>
       <c r="D93" s="15" t="s">
         <v>35</v>
       </c>
       <c r="E93" s="15" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="F93" s="15" t="s">
         <v>257</v>
@@ -13806,22 +13810,22 @@
         <v>77</v>
       </c>
       <c r="I93" s="15" t="s">
+        <v>1137</v>
+      </c>
+      <c r="J93" s="77" t="s">
         <v>1138</v>
-      </c>
-      <c r="J93" s="77" t="s">
-        <v>1139</v>
       </c>
       <c r="K93" s="77">
         <v>2023</v>
       </c>
       <c r="L93" s="77" t="s">
+        <v>1139</v>
+      </c>
+      <c r="M93" s="77" t="s">
         <v>1140</v>
       </c>
-      <c r="M93" s="77" t="s">
+      <c r="N93" s="92" t="s">
         <v>1141</v>
-      </c>
-      <c r="N93" s="92" t="s">
-        <v>1142</v>
       </c>
       <c r="O93" s="15" t="s">
         <v>223</v>
@@ -13833,10 +13837,10 @@
         <v>47</v>
       </c>
       <c r="R93" s="84" t="s">
+        <v>1142</v>
+      </c>
+      <c r="S93" s="14" t="s">
         <v>1143</v>
-      </c>
-      <c r="S93" s="14" t="s">
-        <v>1144</v>
       </c>
       <c r="T93" s="15" t="s">
         <v>433</v>
@@ -13848,10 +13852,10 @@
         <v>77</v>
       </c>
       <c r="W93" s="96" t="s">
+        <v>1144</v>
+      </c>
+      <c r="X93" s="95" t="s">
         <v>1145</v>
-      </c>
-      <c r="X93" s="95" t="s">
-        <v>1146</v>
       </c>
       <c r="Y93" s="52" t="s">
         <v>77</v>
@@ -13866,7 +13870,7 @@
         <v>77</v>
       </c>
       <c r="AC93" s="95" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="AD93" s="58">
         <v>3</v>
@@ -13875,7 +13879,7 @@
         <v>3</v>
       </c>
       <c r="AF93" s="33" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="AG93" s="58" t="s">
         <v>77</v>
@@ -13886,17 +13890,17 @@
     </row>
     <row r="94" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="94" t="s">
+        <v>947</v>
+      </c>
+      <c r="B94" s="63" t="s">
         <v>948</v>
-      </c>
-      <c r="B94" s="63" t="s">
-        <v>949</v>
       </c>
       <c r="C94" s="63"/>
       <c r="D94" s="63" t="s">
         <v>35</v>
       </c>
       <c r="E94" s="63" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="F94" s="63" t="s">
         <v>37</v>
@@ -13905,31 +13909,31 @@
         <v>77</v>
       </c>
       <c r="H94" s="15" t="s">
+        <v>950</v>
+      </c>
+      <c r="I94" s="63" t="s">
         <v>951</v>
       </c>
-      <c r="I94" s="63" t="s">
+      <c r="J94" s="63" t="s">
         <v>952</v>
-      </c>
-      <c r="J94" s="63" t="s">
-        <v>953</v>
       </c>
       <c r="K94" s="63">
         <v>2023</v>
       </c>
       <c r="L94" s="63" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="M94" s="63" t="s">
         <v>43</v>
       </c>
       <c r="N94" s="61" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="O94" s="63" t="s">
         <v>223</v>
       </c>
       <c r="P94" s="84" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="Q94" s="19" t="s">
         <v>47</v>
@@ -13938,22 +13942,22 @@
         <v>48</v>
       </c>
       <c r="S94" s="62" t="s">
+        <v>955</v>
+      </c>
+      <c r="T94" s="63" t="s">
         <v>956</v>
-      </c>
-      <c r="T94" s="63" t="s">
-        <v>957</v>
       </c>
       <c r="U94" s="19" t="s">
         <v>51</v>
       </c>
       <c r="V94" s="46" t="s">
+        <v>957</v>
+      </c>
+      <c r="W94" s="56" t="s">
         <v>958</v>
       </c>
-      <c r="W94" s="56" t="s">
+      <c r="X94" s="46" t="s">
         <v>959</v>
-      </c>
-      <c r="X94" s="46" t="s">
-        <v>960</v>
       </c>
       <c r="Y94" s="32" t="s">
         <v>126</v>
@@ -13968,7 +13972,7 @@
         <v>227</v>
       </c>
       <c r="AC94" s="46" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="AD94" s="58">
         <v>3</v>
@@ -13988,17 +13992,17 @@
     </row>
     <row r="95" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="13" t="s">
+        <v>961</v>
+      </c>
+      <c r="B95" s="94" t="s">
         <v>962</v>
-      </c>
-      <c r="B95" s="94" t="s">
-        <v>963</v>
       </c>
       <c r="C95" s="15"/>
       <c r="D95" s="94" t="s">
         <v>35</v>
       </c>
       <c r="E95" s="94" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="F95" s="94" t="s">
         <v>37</v>
@@ -14007,28 +14011,28 @@
         <v>348</v>
       </c>
       <c r="H95" s="94" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="I95" s="94" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="J95" s="94" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="K95" s="94">
         <v>2023</v>
       </c>
       <c r="L95" s="94" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="M95" s="94" t="s">
         <v>261</v>
       </c>
       <c r="N95" s="42" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="O95" s="94" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="P95" s="93" t="s">
         <v>302</v>
@@ -14040,7 +14044,7 @@
         <v>48</v>
       </c>
       <c r="S95" s="94" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="T95" s="94" t="s">
         <v>158</v>
@@ -14090,50 +14094,50 @@
     </row>
     <row r="96" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="94" t="s">
+        <v>967</v>
+      </c>
+      <c r="B96" s="76" t="s">
         <v>968</v>
-      </c>
-      <c r="B96" s="76" t="s">
-        <v>969</v>
       </c>
       <c r="C96" s="62"/>
       <c r="D96" s="14" t="s">
         <v>35</v>
       </c>
       <c r="E96" s="94" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="F96" s="76" t="s">
         <v>37</v>
       </c>
       <c r="G96" s="14" t="s">
+        <v>970</v>
+      </c>
+      <c r="H96" s="14" t="s">
         <v>971</v>
       </c>
-      <c r="H96" s="14" t="s">
+      <c r="I96" s="76" t="s">
         <v>972</v>
       </c>
-      <c r="I96" s="76" t="s">
-        <v>973</v>
-      </c>
       <c r="J96" s="14" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="K96" s="76">
         <v>2023</v>
       </c>
       <c r="L96" s="76" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="M96" s="76" t="s">
         <v>43</v>
       </c>
       <c r="N96" s="90" t="s">
+        <v>974</v>
+      </c>
+      <c r="O96" s="14" t="s">
         <v>975</v>
       </c>
-      <c r="O96" s="14" t="s">
+      <c r="P96" s="19" t="s">
         <v>976</v>
-      </c>
-      <c r="P96" s="19" t="s">
-        <v>977</v>
       </c>
       <c r="Q96" s="19" t="s">
         <v>47</v>
@@ -14142,37 +14146,37 @@
         <v>48</v>
       </c>
       <c r="S96" s="21" t="s">
+        <v>977</v>
+      </c>
+      <c r="T96" s="94" t="s">
         <v>978</v>
-      </c>
-      <c r="T96" s="94" t="s">
-        <v>979</v>
       </c>
       <c r="U96" s="19" t="s">
         <v>51</v>
       </c>
       <c r="V96" s="38" t="s">
+        <v>979</v>
+      </c>
+      <c r="W96" s="39" t="s">
         <v>980</v>
       </c>
-      <c r="W96" s="39" t="s">
+      <c r="X96" s="91" t="s">
         <v>981</v>
       </c>
-      <c r="X96" s="91" t="s">
+      <c r="Y96" s="52" t="s">
         <v>982</v>
-      </c>
-      <c r="Y96" s="52" t="s">
-        <v>983</v>
       </c>
       <c r="Z96" s="19" t="s">
         <v>56</v>
       </c>
       <c r="AA96" s="19" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="AB96" s="38" t="s">
         <v>227</v>
       </c>
       <c r="AC96" s="38" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="AD96" s="66">
         <v>45383</v>
@@ -14313,7 +14317,7 @@
         <v>64</v>
       </c>
       <c r="H98" s="15" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="I98" s="13" t="s">
         <v>65</v>
@@ -14396,44 +14400,44 @@
     </row>
     <row r="99" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="15" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B99" s="15" t="s">
         <v>1169</v>
-      </c>
-      <c r="B99" s="15" t="s">
-        <v>1170</v>
       </c>
       <c r="C99" s="15"/>
       <c r="D99" s="15" t="s">
         <v>35</v>
       </c>
       <c r="E99" s="15" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="F99" s="15" t="s">
         <v>118</v>
       </c>
       <c r="G99" s="15" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H99" s="14" t="s">
         <v>485</v>
       </c>
       <c r="I99" s="15" t="s">
+        <v>1171</v>
+      </c>
+      <c r="J99" s="15" t="s">
         <v>1172</v>
-      </c>
-      <c r="J99" s="15" t="s">
-        <v>1173</v>
       </c>
       <c r="K99" s="15">
         <v>2024</v>
       </c>
       <c r="L99" s="15" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="M99" s="15" t="s">
         <v>43</v>
       </c>
       <c r="N99" s="92" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="O99" s="15" t="s">
         <v>87</v>
@@ -14448,10 +14452,10 @@
         <v>48</v>
       </c>
       <c r="S99" s="21" t="s">
+        <v>1175</v>
+      </c>
+      <c r="T99" s="15" t="s">
         <v>1176</v>
-      </c>
-      <c r="T99" s="15" t="s">
-        <v>1177</v>
       </c>
       <c r="U99" s="84" t="s">
         <v>51</v>
@@ -14460,13 +14464,13 @@
         <v>91</v>
       </c>
       <c r="W99" s="96" t="s">
+        <v>1177</v>
+      </c>
+      <c r="X99" s="95" t="s">
         <v>1178</v>
       </c>
-      <c r="X99" s="95" t="s">
+      <c r="Y99" s="52" t="s">
         <v>1179</v>
-      </c>
-      <c r="Y99" s="52" t="s">
-        <v>1180</v>
       </c>
       <c r="Z99" s="84" t="s">
         <v>56</v>
@@ -14478,7 +14482,7 @@
         <v>58</v>
       </c>
       <c r="AC99" s="95" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="AD99" s="58">
         <v>2</v>
@@ -14487,7 +14491,7 @@
         <v>6</v>
       </c>
       <c r="AF99" s="33" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="AG99" s="58" t="s">
         <v>77</v>
@@ -14498,17 +14502,17 @@
     </row>
     <row r="100" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="13" t="s">
+        <v>984</v>
+      </c>
+      <c r="B100" s="13" t="s">
         <v>985</v>
-      </c>
-      <c r="B100" s="13" t="s">
-        <v>986</v>
       </c>
       <c r="C100" s="94"/>
       <c r="D100" s="94" t="s">
         <v>35</v>
       </c>
       <c r="E100" s="15" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="F100" s="94" t="s">
         <v>37</v>
@@ -14517,31 +14521,31 @@
         <v>77</v>
       </c>
       <c r="H100" s="15" t="s">
+        <v>987</v>
+      </c>
+      <c r="I100" s="13" t="s">
         <v>988</v>
       </c>
-      <c r="I100" s="13" t="s">
+      <c r="J100" s="13" t="s">
         <v>989</v>
-      </c>
-      <c r="J100" s="13" t="s">
-        <v>990</v>
       </c>
       <c r="K100" s="13">
         <v>2024</v>
       </c>
       <c r="L100" s="15" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="M100" s="13" t="s">
         <v>43</v>
       </c>
       <c r="N100" s="17" t="s">
+        <v>991</v>
+      </c>
+      <c r="O100" s="13" t="s">
         <v>992</v>
       </c>
-      <c r="O100" s="13" t="s">
+      <c r="P100" s="93" t="s">
         <v>993</v>
-      </c>
-      <c r="P100" s="93" t="s">
-        <v>994</v>
       </c>
       <c r="Q100" s="19" t="s">
         <v>47</v>
@@ -14550,10 +14554,10 @@
         <v>48</v>
       </c>
       <c r="S100" s="21" t="s">
+        <v>994</v>
+      </c>
+      <c r="T100" s="13" t="s">
         <v>995</v>
-      </c>
-      <c r="T100" s="13" t="s">
-        <v>996</v>
       </c>
       <c r="U100" s="15" t="s">
         <v>51</v>
@@ -14568,7 +14572,7 @@
         <v>52</v>
       </c>
       <c r="Y100" s="52" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="Z100" s="93" t="s">
         <v>56</v>
@@ -14580,7 +14584,7 @@
         <v>227</v>
       </c>
       <c r="AC100" s="23" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="AD100" s="66">
         <v>45383</v>
@@ -14600,50 +14604,50 @@
     </row>
     <row r="101" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="76" t="s">
+        <v>997</v>
+      </c>
+      <c r="B101" s="34" t="s">
         <v>998</v>
-      </c>
-      <c r="B101" s="34" t="s">
-        <v>999</v>
       </c>
       <c r="C101" s="62"/>
       <c r="D101" s="76" t="s">
         <v>35</v>
       </c>
       <c r="E101" s="76" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="F101" s="76" t="s">
         <v>37</v>
       </c>
       <c r="G101" s="76" t="s">
+        <v>1000</v>
+      </c>
+      <c r="H101" s="76" t="s">
         <v>1001</v>
       </c>
-      <c r="H101" s="76" t="s">
+      <c r="I101" s="34" t="s">
         <v>1002</v>
       </c>
-      <c r="I101" s="34" t="s">
+      <c r="J101" s="34" t="s">
         <v>1003</v>
-      </c>
-      <c r="J101" s="34" t="s">
-        <v>1004</v>
       </c>
       <c r="K101" s="34">
         <v>2024</v>
       </c>
       <c r="L101" s="51" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="M101" s="34" t="s">
         <v>43</v>
       </c>
       <c r="N101" s="37" t="s">
+        <v>1005</v>
+      </c>
+      <c r="O101" s="76" t="s">
         <v>1006</v>
       </c>
-      <c r="O101" s="76" t="s">
-        <v>1007</v>
-      </c>
       <c r="P101" s="76" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="Q101" s="19" t="s">
         <v>47</v>
@@ -14652,25 +14656,25 @@
         <v>48</v>
       </c>
       <c r="S101" s="76" t="s">
+        <v>1007</v>
+      </c>
+      <c r="T101" s="13" t="s">
         <v>1008</v>
-      </c>
-      <c r="T101" s="13" t="s">
-        <v>1009</v>
       </c>
       <c r="U101" s="76" t="s">
         <v>51</v>
       </c>
       <c r="V101" s="91" t="s">
+        <v>1009</v>
+      </c>
+      <c r="W101" s="85" t="s">
         <v>1010</v>
       </c>
-      <c r="W101" s="85" t="s">
+      <c r="X101" s="91" t="s">
         <v>1011</v>
       </c>
-      <c r="X101" s="91" t="s">
+      <c r="Y101" s="52" t="s">
         <v>1012</v>
-      </c>
-      <c r="Y101" s="52" t="s">
-        <v>1013</v>
       </c>
       <c r="Z101" s="76" t="s">
         <v>56</v>
@@ -14682,7 +14686,7 @@
         <v>58</v>
       </c>
       <c r="AC101" s="91" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="AD101" s="82">
         <v>45352</v>
@@ -14702,38 +14706,38 @@
     </row>
     <row r="102" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="94" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B102" s="94" t="s">
         <v>1015</v>
-      </c>
-      <c r="B102" s="94" t="s">
-        <v>1016</v>
       </c>
       <c r="C102" s="94"/>
       <c r="D102" s="94" t="s">
         <v>35</v>
       </c>
       <c r="E102" s="94" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="F102" s="94" t="s">
         <v>37</v>
       </c>
       <c r="G102" s="94" t="s">
+        <v>1017</v>
+      </c>
+      <c r="H102" s="13" t="s">
         <v>1018</v>
       </c>
-      <c r="H102" s="13" t="s">
+      <c r="I102" s="94" t="s">
         <v>1019</v>
       </c>
-      <c r="I102" s="94" t="s">
+      <c r="J102" s="94" t="s">
         <v>1020</v>
-      </c>
-      <c r="J102" s="94" t="s">
-        <v>1021</v>
       </c>
       <c r="K102" s="94">
         <v>2024</v>
       </c>
       <c r="L102" s="94" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="M102" s="94" t="s">
         <v>43</v>
@@ -14742,7 +14746,7 @@
         <v>156</v>
       </c>
       <c r="O102" s="94" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="P102" s="93" t="s">
         <v>340</v>
@@ -14763,10 +14767,10 @@
         <v>51</v>
       </c>
       <c r="V102" s="38" t="s">
+        <v>1023</v>
+      </c>
+      <c r="W102" s="39" t="s">
         <v>1024</v>
-      </c>
-      <c r="W102" s="39" t="s">
-        <v>1025</v>
       </c>
       <c r="X102" s="38" t="s">
         <v>241</v>
@@ -14784,7 +14788,7 @@
         <v>227</v>
       </c>
       <c r="AC102" s="38" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="AD102" s="98">
         <v>9</v>
@@ -14804,17 +14808,17 @@
     </row>
     <row r="103" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="76" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B103" s="94" t="s">
         <v>1027</v>
-      </c>
-      <c r="B103" s="94" t="s">
-        <v>1028</v>
       </c>
       <c r="C103" s="62"/>
       <c r="D103" s="94" t="s">
         <v>35</v>
       </c>
       <c r="E103" s="94" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="F103" s="94" t="s">
         <v>37</v>
@@ -14823,28 +14827,28 @@
         <v>77</v>
       </c>
       <c r="H103" s="94" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="I103" s="94" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="J103" s="94" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="K103" s="94">
         <v>2024</v>
       </c>
       <c r="L103" s="15" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="M103" s="94" t="s">
         <v>43</v>
       </c>
       <c r="N103" s="42" t="s">
+        <v>1031</v>
+      </c>
+      <c r="O103" s="94" t="s">
         <v>1032</v>
-      </c>
-      <c r="O103" s="94" t="s">
-        <v>1033</v>
       </c>
       <c r="P103" s="93" t="s">
         <v>340</v>
@@ -14856,37 +14860,37 @@
         <v>48</v>
       </c>
       <c r="S103" s="21" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="T103" s="94" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="U103" s="93" t="s">
         <v>305</v>
       </c>
       <c r="V103" s="38" t="s">
+        <v>1034</v>
+      </c>
+      <c r="W103" s="39" t="s">
         <v>1035</v>
       </c>
-      <c r="W103" s="39" t="s">
+      <c r="X103" s="38" t="s">
         <v>1036</v>
       </c>
-      <c r="X103" s="38" t="s">
-        <v>1037</v>
-      </c>
       <c r="Y103" s="97" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="Z103" s="93" t="s">
         <v>56</v>
       </c>
       <c r="AA103" s="19" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="AB103" s="38" t="s">
         <v>58</v>
       </c>
       <c r="AC103" s="38" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="AD103" s="66">
         <v>45323</v>
@@ -14906,50 +14910,50 @@
     </row>
     <row r="104" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="94" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B104" s="13" t="s">
         <v>1039</v>
-      </c>
-      <c r="B104" s="13" t="s">
-        <v>1040</v>
       </c>
       <c r="C104" s="13"/>
       <c r="D104" s="15" t="s">
         <v>35</v>
       </c>
       <c r="E104" s="15" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="F104" s="15" t="s">
         <v>37</v>
       </c>
       <c r="G104" s="13" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="H104" s="100" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="I104" s="13" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J104" s="13" t="s">
         <v>1042</v>
-      </c>
-      <c r="J104" s="13" t="s">
-        <v>1043</v>
       </c>
       <c r="K104" s="13">
         <v>2024</v>
       </c>
       <c r="L104" s="99" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="M104" s="13" t="s">
         <v>43</v>
       </c>
       <c r="N104" s="17" t="s">
+        <v>1044</v>
+      </c>
+      <c r="O104" s="13" t="s">
         <v>1045</v>
       </c>
-      <c r="O104" s="13" t="s">
+      <c r="P104" s="93" t="s">
         <v>1046</v>
-      </c>
-      <c r="P104" s="93" t="s">
-        <v>1047</v>
       </c>
       <c r="Q104" s="93" t="s">
         <v>47</v>
@@ -14958,7 +14962,7 @@
         <v>48</v>
       </c>
       <c r="S104" s="94" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="T104" s="13" t="s">
         <v>158</v>
@@ -14967,16 +14971,16 @@
         <v>51</v>
       </c>
       <c r="V104" s="23" t="s">
+        <v>1048</v>
+      </c>
+      <c r="W104" s="24" t="s">
         <v>1049</v>
       </c>
-      <c r="W104" s="24" t="s">
+      <c r="X104" s="23" t="s">
         <v>1050</v>
       </c>
-      <c r="X104" s="23" t="s">
+      <c r="Y104" s="97" t="s">
         <v>1051</v>
-      </c>
-      <c r="Y104" s="97" t="s">
-        <v>1052</v>
       </c>
       <c r="Z104" s="19" t="s">
         <v>171</v>
